--- a/daily.xlsx
+++ b/daily.xlsx
@@ -4,19 +4,98 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="10440" activeTab="2"/>
+    <workbookView windowWidth="28515" windowHeight="15165"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="daily_todo" sheetId="3" r:id="rId3"/>
+    <sheet name="每日习惯" sheetId="4" r:id="rId1"/>
+    <sheet name="book_list" sheetId="5" r:id="rId2"/>
+    <sheet name="草稿" sheetId="1" r:id="rId3"/>
+    <sheet name="daily_todo" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+  <si>
+    <t>起床时间</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>5页</t>
+  </si>
+  <si>
+    <t>Animal Farm78完结</t>
+  </si>
+  <si>
+    <t>voca</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>grammar(脑图)</t>
+  </si>
+  <si>
+    <t>主语从句</t>
+  </si>
+  <si>
+    <t>定语，状语从句</t>
+  </si>
+  <si>
+    <t>nhj</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>踢球</t>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+  </si>
+  <si>
+    <t>push_up</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>背部锻炼（100）</t>
+  </si>
+  <si>
+    <t>颈椎保养(tower)</t>
+  </si>
+  <si>
+    <t>meditation</t>
+  </si>
+  <si>
+    <t>新概念3，4</t>
+  </si>
+  <si>
+    <t>AudioBook</t>
+  </si>
+  <si>
+    <t>经济学人</t>
+  </si>
+  <si>
+    <t>数学10分钟(白纸输出知识)</t>
+  </si>
+  <si>
+    <t>其他阅读(书评)</t>
+  </si>
+  <si>
+    <t>1小时</t>
+  </si>
+  <si>
+    <t>2小时</t>
+  </si>
   <si>
     <t>olive oil</t>
   </si>
@@ -33,6 +112,93 @@
     <t>核桃</t>
   </si>
   <si>
+    <t>番茄时间</t>
+  </si>
+  <si>
+    <t>手机使用时间</t>
+  </si>
+  <si>
+    <t>拉伸</t>
+  </si>
+  <si>
+    <t>瑜伽</t>
+  </si>
+  <si>
+    <t>Omega 3</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>C++ primer</t>
+  </si>
+  <si>
+    <t>C++ 程序设计语言</t>
+  </si>
+  <si>
+    <t>Effective C++</t>
+  </si>
+  <si>
+    <t>More Effective C++</t>
+  </si>
+  <si>
+    <t>Exceptional C++</t>
+  </si>
+  <si>
+    <t>标准库</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C和指针</t>
+  </si>
+  <si>
+    <t>C专家编程</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>数据结构和算法</t>
+  </si>
+  <si>
+    <t>面试宝典</t>
+  </si>
+  <si>
+    <t>行为心理学</t>
+  </si>
+  <si>
+    <t>认知心理学</t>
+  </si>
+  <si>
+    <t>脑科学</t>
+  </si>
+  <si>
+    <t>荷尔蒙</t>
+  </si>
+  <si>
+    <t>神经学</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>历史</t>
+  </si>
+  <si>
+    <t>维生素D B</t>
+  </si>
+  <si>
+    <t>减少铁的摄入</t>
+  </si>
+  <si>
+    <t>保护肠内菌群，比DNA重要</t>
+  </si>
+  <si>
     <t>整理房间</t>
   </si>
   <si>
@@ -54,31 +220,52 @@
     <t>memo纸</t>
   </si>
   <si>
-    <t>reading book</t>
-  </si>
-  <si>
-    <t>做读书笔记</t>
-  </si>
-  <si>
-    <t>mind map</t>
-  </si>
-  <si>
-    <t>读书后写自己感想</t>
-  </si>
-  <si>
-    <t>起床时间</t>
-  </si>
-  <si>
-    <t>仰卧起坐</t>
-  </si>
-  <si>
-    <t>俯卧撑</t>
-  </si>
-  <si>
-    <t>跑步</t>
-  </si>
-  <si>
-    <t>拉伸</t>
+    <t>英语语法</t>
+  </si>
+  <si>
+    <t>英语单词</t>
+  </si>
+  <si>
+    <t>英文阅读  小说</t>
+  </si>
+  <si>
+    <t>60KG</t>
+  </si>
+  <si>
+    <t>睡觉时间</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>王道习题</t>
+  </si>
+  <si>
+    <t>计算机书籍复习</t>
+  </si>
+  <si>
+    <t>听音乐</t>
+  </si>
+  <si>
+    <t>读其他书，写书评</t>
+  </si>
+  <si>
+    <t>经济类，神经学，荷尔蒙，学习方法，自我开发</t>
+  </si>
+  <si>
+    <t>MindMap梳理知识</t>
+  </si>
+  <si>
+    <t>A4纸输出知识</t>
+  </si>
+  <si>
+    <t>换工作服，白色噪音</t>
+  </si>
+  <si>
+    <t>脚趾甲</t>
+  </si>
+  <si>
+    <t>百度脑图</t>
   </si>
   <si>
     <t>颈椎保养</t>
@@ -87,37 +274,40 @@
     <t>冥想</t>
   </si>
   <si>
-    <t>瑜伽</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>语法</t>
-  </si>
-  <si>
-    <t>单词</t>
-  </si>
-  <si>
-    <t>阅读</t>
-  </si>
-  <si>
-    <t>笔记</t>
-  </si>
-  <si>
-    <t>百度脑图</t>
-  </si>
-  <si>
-    <t>白纸引出知识（总结到一本书）</t>
-  </si>
-  <si>
-    <t>Omega 3</t>
-  </si>
-  <si>
-    <t>Vitamin D</t>
-  </si>
-  <si>
-    <t>经济学人</t>
+    <t>打印机</t>
+  </si>
+  <si>
+    <t>看书环境设定，特定环境做特定的学习</t>
+  </si>
+  <si>
+    <t>番茄闹钟</t>
+  </si>
+  <si>
+    <t>京东白条</t>
+  </si>
+  <si>
+    <t>宽带费</t>
+  </si>
+  <si>
+    <t>睡觉前2-4小时不吃东西， 影响大脑清理垃圾。</t>
+  </si>
+  <si>
+    <t>特级初榨橄榄油</t>
+  </si>
+  <si>
+    <t>咖啡</t>
+  </si>
+  <si>
+    <t>黑巧克力</t>
+  </si>
+  <si>
+    <t>绿茶</t>
+  </si>
+  <si>
+    <t>少吃糖</t>
+  </si>
+  <si>
+    <t>喝美式</t>
   </si>
 </sst>
 </file>
@@ -125,12 +315,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,17 +336,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,30 +365,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,16 +379,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,8 +409,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -253,6 +440,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -260,11 +455,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,21 +471,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,43 +496,223 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,145 +724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +741,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -529,63 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -604,10 +849,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -616,144 +861,201 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1104,74 +1406,564 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E20"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="10" width="12.875"/>
+    <col min="11" max="11" width="14.5"/>
+    <col min="12" max="12" width="16.175" customWidth="1"/>
+    <col min="13" max="19" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
+    <row r="1" spans="2:19">
+      <c r="B1" s="2">
+        <v>43952</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43953</v>
+      </c>
+      <c r="D1" s="7">
+        <v>43954</v>
+      </c>
+      <c r="E1" s="8">
+        <v>43955</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43956</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43957</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43958</v>
+      </c>
+      <c r="I1" s="2">
+        <v>43959</v>
+      </c>
+      <c r="J1" s="2">
+        <v>43960</v>
+      </c>
+      <c r="K1" s="7">
+        <v>43961</v>
+      </c>
+      <c r="L1" s="8">
+        <v>43962</v>
+      </c>
+      <c r="M1" s="8">
+        <v>43963</v>
+      </c>
+      <c r="N1" s="8">
+        <v>43964</v>
+      </c>
+      <c r="O1" s="8">
+        <v>43965</v>
+      </c>
+      <c r="P1" s="8">
+        <v>43966</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>43967</v>
+      </c>
+      <c r="R1" s="8">
+        <v>43968</v>
+      </c>
+      <c r="S1" s="8">
+        <v>43969</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+      <c r="B2" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="I2" s="10">
+        <v>0.34375</v>
+      </c>
+      <c r="J2" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="K2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="L2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="M2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="N2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="O2" s="10">
+        <v>0.347222222222222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13">
+        <v>64.7</v>
+      </c>
+      <c r="G3" s="13">
+        <v>65.2</v>
+      </c>
+      <c r="H3" s="13">
+        <v>64.5</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="13">
+        <v>64.05</v>
+      </c>
+      <c r="K3" s="13">
+        <v>64.95</v>
+      </c>
+      <c r="L3" s="13">
+        <v>65.35</v>
+      </c>
+      <c r="M3" s="13">
+        <v>64.75</v>
+      </c>
+      <c r="N3" s="13">
+        <v>65.05</v>
+      </c>
+      <c r="O3" s="13">
+        <v>64.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+      <c r="C4" s="13"/>
+      <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+      <c r="E4" s="13">
+        <v>15</v>
+      </c>
+      <c r="F4" s="13">
+        <v>13</v>
+      </c>
+      <c r="G4" s="13">
+        <v>24</v>
+      </c>
+      <c r="H4" s="13">
+        <v>35</v>
+      </c>
+      <c r="I4" s="13">
+        <v>49</v>
+      </c>
+      <c r="J4" s="13">
+        <v>60</v>
+      </c>
+      <c r="K4" s="14"/>
+      <c r="L4" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
+      <c r="M4" s="13">
+        <v>2</v>
+      </c>
+      <c r="N4" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:14">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:14">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13">
+        <v>30</v>
+      </c>
+      <c r="F6" s="13">
+        <v>30</v>
+      </c>
+      <c r="G6" s="13">
+        <v>60</v>
+      </c>
+      <c r="H6" s="13">
+        <v>30</v>
+      </c>
+      <c r="I6" s="13">
+        <v>30</v>
+      </c>
+      <c r="J6" s="13">
+        <v>60</v>
+      </c>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13">
+        <v>120</v>
+      </c>
+      <c r="M6" s="13">
+        <v>30</v>
+      </c>
+      <c r="N6" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" t="s">
+      <c r="D7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D20" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:14">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:14">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13">
+        <v>60</v>
+      </c>
+      <c r="E9" s="13">
+        <v>60</v>
+      </c>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="13">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13">
+        <v>20</v>
+      </c>
+      <c r="F10" s="13">
+        <v>20</v>
+      </c>
+      <c r="G10" s="13">
+        <v>20</v>
+      </c>
+      <c r="H10" s="13">
+        <v>20</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13">
+        <v>20</v>
+      </c>
+      <c r="E11" s="13">
+        <v>20</v>
+      </c>
+      <c r="F11" s="13">
+        <v>20</v>
+      </c>
+      <c r="G11" s="13">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" s="4" customFormat="1" spans="1:1">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" ht="20.25" spans="1:1">
+      <c r="A17" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" ht="20.25" spans="1:1">
+      <c r="A18" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" ht="20.25" spans="1:1">
+      <c r="A19" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A20" s="18"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:1">
+      <c r="A21" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:13">
+      <c r="A22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M22" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="1" spans="1:1">
+      <c r="A23" s="20"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="M24" s="13"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="13"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" s="5" customFormat="1" spans="1:1">
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1179,40 +1971,112 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B5"/>
+  <dimension ref="A2:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
-  <cols>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1220,140 +2084,328 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B33"/>
+  <dimension ref="B2:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="47.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
     <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="11" width="12.875"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
+    <row r="1" spans="3:11">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" ht="13.5" spans="2:2">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" spans="2:2">
+      <c r="B3"/>
+    </row>
+    <row r="4" ht="13.5" spans="2:2">
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" spans="2:2">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" spans="2:2">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" spans="2:2">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" spans="2:2">
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" spans="2:2">
+      <c r="B9"/>
+    </row>
+    <row r="10" ht="13.5" spans="2:2">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" ht="13.5" spans="2:2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="13.5" spans="2:2">
+      <c r="B12"/>
+    </row>
+    <row r="13" ht="13.5" spans="2:2">
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="13.5" spans="2:2">
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" ht="13.5" spans="2:2">
+      <c r="B15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" ht="13.5" spans="2:2">
+      <c r="B16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -4,24 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28515" windowHeight="15165"/>
+    <workbookView windowWidth="21795" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="每日习惯" sheetId="4" r:id="rId1"/>
-    <sheet name="book_list" sheetId="5" r:id="rId2"/>
-    <sheet name="草稿" sheetId="1" r:id="rId3"/>
-    <sheet name="daily_todo" sheetId="3" r:id="rId4"/>
+    <sheet name="6月" sheetId="8" r:id="rId2"/>
+    <sheet name="book_list" sheetId="5" r:id="rId3"/>
+    <sheet name="草稿" sheetId="1" r:id="rId4"/>
+    <sheet name="daily_todo" sheetId="3" r:id="rId5"/>
+    <sheet name="Motto" sheetId="6" r:id="rId6"/>
+    <sheet name="mba" sheetId="7" r:id="rId7"/>
+    <sheet name="mba书籍" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
   <si>
     <t>起床时间</t>
   </si>
   <si>
+    <t>不要迟到</t>
+  </si>
+  <si>
     <t>weight</t>
   </si>
   <si>
@@ -34,6 +41,9 @@
     <t>Animal Farm78完结</t>
   </si>
   <si>
+    <t>速度：90/min</t>
+  </si>
+  <si>
     <t>voca</t>
   </si>
   <si>
@@ -64,6 +74,9 @@
     <t>push_up</t>
   </si>
   <si>
+    <t>靠墙站立</t>
+  </si>
+  <si>
     <t>bridge</t>
   </si>
   <si>
@@ -133,6 +146,57 @@
     <t>C++</t>
   </si>
   <si>
+    <t>routine</t>
+  </si>
+  <si>
+    <t>体重</t>
+  </si>
+  <si>
+    <t>跑步</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>dictation</t>
+  </si>
+  <si>
+    <t>speaking</t>
+  </si>
+  <si>
+    <t>专业</t>
+  </si>
+  <si>
+    <t>c++ program</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>数学</t>
+  </si>
+  <si>
+    <t>逻辑</t>
+  </si>
+  <si>
+    <t>饮食</t>
+  </si>
+  <si>
+    <t>1日2餐</t>
+  </si>
+  <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>读书写书评</t>
+  </si>
+  <si>
     <t>C++ primer</t>
   </si>
   <si>
@@ -160,6 +224,9 @@
     <t>C专家编程</t>
   </si>
   <si>
+    <t>code complete</t>
+  </si>
+  <si>
     <t>网络</t>
   </si>
   <si>
@@ -235,9 +302,6 @@
     <t>睡觉时间</t>
   </si>
   <si>
-    <t>数学</t>
-  </si>
-  <si>
     <t>王道习题</t>
   </si>
   <si>
@@ -308,6 +372,84 @@
   </si>
   <si>
     <t>喝美式</t>
+  </si>
+  <si>
+    <t>1日断食</t>
+  </si>
+  <si>
+    <t>2日断食</t>
+  </si>
+  <si>
+    <t>3日断食</t>
+  </si>
+  <si>
+    <t>5点起床</t>
+  </si>
+  <si>
+    <t>4点起床</t>
+  </si>
+  <si>
+    <t>english meditation</t>
+  </si>
+  <si>
+    <t>快速过单词， 重复7-10次</t>
+  </si>
+  <si>
+    <t>voca app</t>
+  </si>
+  <si>
+    <t>listening</t>
+  </si>
+  <si>
+    <t>read book</t>
+  </si>
+  <si>
+    <t>red hat speaking toddler</t>
+  </si>
+  <si>
+    <t>早餐（沙拉）+玉米 + 核桃 + chocolate</t>
+  </si>
+  <si>
+    <t>肌肉运动</t>
+  </si>
+  <si>
+    <t>内脏脂肪</t>
+  </si>
+  <si>
+    <t>MBA联考</t>
+  </si>
+  <si>
+    <t>科目包括英语和综合能力，英语100分、综合200分(数学75分、逻辑60分、写作65分)，总分300分;每科考试时间是3小时。</t>
+  </si>
+  <si>
+    <t>免联考MBA</t>
+  </si>
+  <si>
+    <t>报名——参加学校自主组织的面试+笔试——学习——论文答辩——获得硕士学位证书。</t>
+  </si>
+  <si>
+    <t>做可靠的人</t>
+  </si>
+  <si>
+    <t>讲诚信</t>
+  </si>
+  <si>
+    <t>读书，写笔记，写书评</t>
+  </si>
+  <si>
+    <t>学费</t>
+  </si>
+  <si>
+    <t>学制</t>
+  </si>
+  <si>
+    <t>证书</t>
+  </si>
+  <si>
+    <t>报考条件</t>
+  </si>
+  <si>
+    <t>认可度</t>
   </si>
 </sst>
 </file>
@@ -315,12 +457,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,24 +478,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,7 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,23 +513,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,7 +536,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,23 +559,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,9 +590,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -479,15 +627,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -496,6 +644,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -514,36 +680,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -556,181 +722,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,30 +907,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -786,8 +928,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,6 +939,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,17 +973,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,6 +992,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -849,149 +1015,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,58 +1170,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1406,35 +1596,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O4" sqref="O4"/>
+      <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="10" width="12.875"/>
     <col min="11" max="11" width="14.5"/>
     <col min="12" max="12" width="16.175" customWidth="1"/>
     <col min="13" max="19" width="14.5"/>
+    <col min="20" max="22" width="14.5" customWidth="1"/>
+    <col min="23" max="32" width="14.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:32">
       <c r="B1" s="2">
         <v>43952</v>
       </c>
       <c r="C1" s="2">
         <v>43953</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="14">
         <v>43954</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="15">
         <v>43955</v>
       </c>
       <c r="F1" s="2">
@@ -1452,514 +1644,923 @@
       <c r="J1" s="2">
         <v>43960</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="14">
         <v>43961</v>
       </c>
-      <c r="L1" s="8">
+      <c r="L1" s="15">
         <v>43962</v>
       </c>
-      <c r="M1" s="8">
+      <c r="M1" s="15">
         <v>43963</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="15">
         <v>43964</v>
       </c>
-      <c r="O1" s="8">
+      <c r="O1" s="15">
         <v>43965</v>
       </c>
-      <c r="P1" s="8">
+      <c r="P1" s="15">
         <v>43966</v>
       </c>
-      <c r="Q1" s="8">
+      <c r="Q1" s="15">
         <v>43967</v>
       </c>
-      <c r="R1" s="8">
+      <c r="R1" s="14">
         <v>43968</v>
       </c>
-      <c r="S1" s="8">
+      <c r="S1" s="15">
         <v>43969</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="T1" s="15">
+        <v>43970</v>
+      </c>
+      <c r="U1" s="15">
+        <v>43971</v>
+      </c>
+      <c r="V1" s="15">
+        <v>43972</v>
+      </c>
+      <c r="W1" s="15">
+        <v>43973</v>
+      </c>
+      <c r="X1" s="14">
+        <v>43974</v>
+      </c>
+      <c r="Y1" s="14">
+        <v>43975</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>43976</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>43977</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>43978</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>43979</v>
+      </c>
+      <c r="AD1" s="15">
+        <v>43980</v>
+      </c>
+      <c r="AE1" s="14">
+        <v>43981</v>
+      </c>
+      <c r="AF1" s="14">
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="16">
         <v>0.395833333333333</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="16">
         <v>0.354166666666667</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="16">
         <v>0.34375</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="16">
         <v>0.34375</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="16">
         <v>0.34375</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="16">
         <v>0.479166666666667</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="16">
         <v>0.347222222222222</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="16">
         <v>0.347222222222222</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="11" t="s">
+      <c r="P2" s="16">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>0.347222222222222</v>
+      </c>
+      <c r="R2" s="16">
+        <v>0.513888888888889</v>
+      </c>
+      <c r="S2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="T2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="U2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="V2" s="16">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="W2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="X2" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AB2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AC2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="AD2" s="16">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19">
         <v>64.7</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G4" s="19">
         <v>65.2</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H4" s="19">
         <v>64.5</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="13">
+      <c r="I4" s="20"/>
+      <c r="J4" s="19">
         <v>64.05</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K4" s="19">
         <v>64.95</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L4" s="19">
         <v>65.35</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M4" s="19">
         <v>64.75</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N4" s="19">
         <v>65.05</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O4" s="19">
         <v>64.45</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="9" t="s">
+      <c r="P4" s="19">
+        <v>64.45</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>64.05</v>
+      </c>
+      <c r="R4" s="19">
+        <v>63.85</v>
+      </c>
+      <c r="S4" s="19">
+        <v>64.65</v>
+      </c>
+      <c r="T4" s="19">
+        <v>63.9</v>
+      </c>
+      <c r="U4" s="19">
+        <v>63.55</v>
+      </c>
+      <c r="V4" s="19">
+        <v>63.7</v>
+      </c>
+      <c r="W4" s="19">
+        <v>64.15</v>
+      </c>
+      <c r="X4" s="19">
+        <v>63.1</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>63.1</v>
+      </c>
+      <c r="Z4" s="19">
+        <v>64.2</v>
+      </c>
+      <c r="AA4" s="19">
+        <v>63.2</v>
+      </c>
+      <c r="AB4" s="19">
+        <v>63.25</v>
+      </c>
+      <c r="AC4" s="19">
+        <v>63.25</v>
+      </c>
+      <c r="AD4" s="19">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19">
+        <v>15</v>
+      </c>
+      <c r="F5" s="19">
+        <v>13</v>
+      </c>
+      <c r="G5" s="19">
+        <v>24</v>
+      </c>
+      <c r="H5" s="19">
+        <v>35</v>
+      </c>
+      <c r="I5" s="19">
+        <v>49</v>
+      </c>
+      <c r="J5" s="19">
+        <v>60</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="N5" s="19">
+        <v>4</v>
+      </c>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:27">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:30">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
+        <v>30</v>
+      </c>
+      <c r="F7" s="19">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19">
+        <v>60</v>
+      </c>
+      <c r="H7" s="19">
+        <v>30</v>
+      </c>
+      <c r="I7" s="19">
+        <v>30</v>
+      </c>
+      <c r="J7" s="19">
+        <v>60</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="19">
+        <v>120</v>
+      </c>
+      <c r="M7" s="19">
+        <v>30</v>
+      </c>
+      <c r="N7" s="19">
+        <v>30</v>
+      </c>
+      <c r="O7" s="19">
+        <v>30</v>
+      </c>
+      <c r="P7" s="19">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="19">
+        <v>30</v>
+      </c>
+      <c r="S7" s="19">
+        <v>30</v>
+      </c>
+      <c r="T7" s="19">
+        <v>80</v>
+      </c>
+      <c r="U7" s="19">
+        <v>80</v>
+      </c>
+      <c r="V7" s="19">
+        <v>80</v>
+      </c>
+      <c r="W7" s="19">
+        <v>30</v>
+      </c>
+      <c r="X7" s="19">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>80</v>
+      </c>
+      <c r="Z7" s="19">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="19">
+        <v>120</v>
+      </c>
+      <c r="AB7" s="19">
+        <v>120</v>
+      </c>
+      <c r="AC7" s="19">
+        <v>120</v>
+      </c>
+      <c r="AD7" s="19">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+    </row>
+    <row r="9" customFormat="1" spans="1:29">
+      <c r="A9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="21"/>
+    </row>
+    <row r="10" customFormat="1" spans="1:27">
+      <c r="A10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19">
+        <v>60</v>
+      </c>
+      <c r="E10" s="19">
+        <v>60</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="19"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
+        <v>60</v>
+      </c>
+      <c r="V10" s="19">
+        <v>45</v>
+      </c>
+      <c r="W10" s="20"/>
+      <c r="X10" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="19"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13">
-        <v>13</v>
-      </c>
-      <c r="G4" s="13">
+      <c r="D11" s="19">
+        <v>20</v>
+      </c>
+      <c r="E11" s="19">
+        <v>20</v>
+      </c>
+      <c r="F11" s="19">
+        <v>20</v>
+      </c>
+      <c r="G11" s="19">
+        <v>20</v>
+      </c>
+      <c r="H11" s="19">
+        <v>20</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19">
+        <v>20</v>
+      </c>
+      <c r="E12" s="19">
+        <v>20</v>
+      </c>
+      <c r="F12" s="19">
+        <v>20</v>
+      </c>
+      <c r="G12" s="19">
+        <v>20</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+    </row>
+    <row r="18" s="12" customFormat="1" spans="1:1">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" ht="20.25" spans="1:1">
+      <c r="A19" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="20.25" spans="1:1">
+      <c r="A20" s="23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="20.25" spans="1:1">
+      <c r="A21" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="13">
+    </row>
+    <row r="22" s="13" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A22" s="24"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:1">
+      <c r="A23" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:18">
+      <c r="A24" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="19">
+        <v>15</v>
+      </c>
+      <c r="N24" s="19">
+        <v>30</v>
+      </c>
+      <c r="O24" s="19">
+        <v>72</v>
+      </c>
+      <c r="P24" s="19">
+        <v>50</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>80</v>
+      </c>
+      <c r="R24" s="19">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" s="13" customFormat="1" spans="1:1">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="M26" s="19"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="F30" s="19"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="13">
-        <v>49</v>
-      </c>
-      <c r="J4" s="13">
-        <v>60</v>
-      </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M4" s="13">
-        <v>2</v>
-      </c>
-      <c r="N4" s="13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:14">
-      <c r="A5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:14">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13">
-        <v>30</v>
-      </c>
-      <c r="F6" s="13">
-        <v>30</v>
-      </c>
-      <c r="G6" s="13">
-        <v>60</v>
-      </c>
-      <c r="H6" s="13">
-        <v>30</v>
-      </c>
-      <c r="I6" s="13">
-        <v>30</v>
-      </c>
-      <c r="J6" s="13">
-        <v>60</v>
-      </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13">
-        <v>120</v>
-      </c>
-      <c r="M6" s="13">
-        <v>30</v>
-      </c>
-      <c r="N6" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-    </row>
-    <row r="8" customFormat="1" spans="1:14">
-      <c r="A8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="15"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:14">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13">
-        <v>60</v>
-      </c>
-      <c r="E9" s="13">
-        <v>60</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="13">
-        <v>20</v>
-      </c>
-      <c r="E10" s="13">
-        <v>20</v>
-      </c>
-      <c r="F10" s="13">
-        <v>20</v>
-      </c>
-      <c r="G10" s="13">
-        <v>20</v>
-      </c>
-      <c r="H10" s="13">
-        <v>20</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13">
-        <v>20</v>
-      </c>
-      <c r="F11" s="13">
-        <v>20</v>
-      </c>
-      <c r="G11" s="13">
-        <v>20</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:1">
-      <c r="A16" s="16"/>
-    </row>
-    <row r="17" ht="20.25" spans="1:1">
-      <c r="A17" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" ht="20.25" spans="1:1">
-      <c r="A18" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" ht="20.25" spans="1:1">
-      <c r="A19" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="20.25" spans="1:1">
-      <c r="A20" s="18"/>
-    </row>
-    <row r="21" customFormat="1" spans="1:1">
-      <c r="A21" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:13">
-      <c r="A22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:1">
-      <c r="A23" s="20"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="13"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="1:1">
-      <c r="A33" s="20"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="27" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>36</v>
+      <c r="A34" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" s="13" customFormat="1" spans="1:1">
+      <c r="A35" s="26"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
-        <v>37</v>
+      <c r="A37" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1971,109 +2572,260 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B34"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <cols>
+    <col min="1" max="1" width="41.5" style="7" customWidth="1"/>
+    <col min="2" max="10" width="9.375"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="1" spans="2:10">
+      <c r="B1" s="8">
+        <v>43983</v>
+      </c>
+      <c r="C1" s="8">
+        <v>43984</v>
+      </c>
+      <c r="D1" s="8">
+        <v>43985</v>
+      </c>
+      <c r="E1" s="8">
+        <v>43986</v>
+      </c>
+      <c r="F1" s="8">
+        <v>43987</v>
+      </c>
+      <c r="G1" s="8">
+        <v>43988</v>
+      </c>
+      <c r="H1" s="8">
+        <v>43989</v>
+      </c>
+      <c r="I1" s="8">
+        <v>43990</v>
+      </c>
+      <c r="J1" s="8">
+        <v>43991</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" spans="1:1">
+      <c r="A13" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" s="6" customFormat="1" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" s="6" customFormat="1" spans="1:1">
+      <c r="A24" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" s="6" customFormat="1" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="21" customHeight="1" spans="1:1">
+      <c r="A28" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>53</v>
+      <c r="A31" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>54</v>
+      <c r="A32" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>55</v>
+      <c r="A33" s="10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" s="6" customFormat="1" spans="1:1">
+      <c r="A36" s="9" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="11"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="11"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="11"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2082,6 +2834,127 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:E50"/>
@@ -2097,204 +2970,204 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="2:2">
       <c r="B41" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="2:2">
       <c r="B42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2304,18 +3177,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:K20"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="2" max="2" width="41.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="11" width="12.875"/>
@@ -2334,7 +3207,7 @@
     </row>
     <row r="2" ht="13.5" spans="2:2">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="2:2">
@@ -2342,27 +3215,27 @@
     </row>
     <row r="4" ht="13.5" spans="2:2">
       <c r="B4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="2:2">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" ht="13.5" spans="2:2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="2:2">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:2">
       <c r="B8" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="2:2">
@@ -2370,12 +3243,12 @@
     </row>
     <row r="10" ht="13.5" spans="2:2">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="2:2">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" ht="13.5" spans="2:2">
@@ -2383,30 +3256,218 @@
     </row>
     <row r="13" ht="13.5" spans="2:2">
       <c r="B13" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="2:2">
       <c r="B14" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:2">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="2:2">
       <c r="B16" t="s">
-        <v>59</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" ht="18" spans="2:3">
+      <c r="B39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" ht="18" spans="2:3">
+      <c r="B40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="21.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" ht="20.25" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/daily.xlsx
+++ b/daily.xlsx
@@ -4,24 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21795" windowHeight="12585" activeTab="1"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="每日习惯" sheetId="4" r:id="rId1"/>
     <sheet name="6月" sheetId="8" r:id="rId2"/>
-    <sheet name="book_list" sheetId="5" r:id="rId3"/>
-    <sheet name="草稿" sheetId="1" r:id="rId4"/>
-    <sheet name="daily_todo" sheetId="3" r:id="rId5"/>
-    <sheet name="Motto" sheetId="6" r:id="rId6"/>
-    <sheet name="mba" sheetId="7" r:id="rId7"/>
-    <sheet name="mba书籍" sheetId="9" r:id="rId8"/>
+    <sheet name="7月" sheetId="11" r:id="rId3"/>
+    <sheet name="daily_report" sheetId="10" r:id="rId4"/>
+    <sheet name="book_list" sheetId="5" r:id="rId5"/>
+    <sheet name="草稿" sheetId="1" r:id="rId6"/>
+    <sheet name="daily_todo" sheetId="3" r:id="rId7"/>
+    <sheet name="Motto" sheetId="6" r:id="rId8"/>
+    <sheet name="mba" sheetId="7" r:id="rId9"/>
+    <sheet name="mba书籍" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
   <si>
     <t>起床时间</t>
   </si>
@@ -152,22 +154,28 @@
     <t>体重</t>
   </si>
   <si>
+    <t>健身房</t>
+  </si>
+  <si>
     <t>跑步</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
+    <t>speaking</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
     <t>grammar</t>
   </si>
   <si>
-    <t>writing</t>
-  </si>
-  <si>
     <t>dictation</t>
   </si>
   <si>
-    <t>speaking</t>
+    <t>diary</t>
   </si>
   <si>
     <t>专业</t>
@@ -197,6 +205,63 @@
     <t>读书写书评</t>
   </si>
   <si>
+    <t>田静语法</t>
+  </si>
+  <si>
+    <t>减肥1KG</t>
+  </si>
+  <si>
+    <t>squat  100</t>
+  </si>
+  <si>
+    <t>食醋泡</t>
+  </si>
+  <si>
+    <t>voca+词组</t>
+  </si>
+  <si>
+    <t>唐迟基础阅读视频（5）</t>
+  </si>
+  <si>
+    <t>唐迟阅读视频完结（6）</t>
+  </si>
+  <si>
+    <t>翻译-唐静(optional)</t>
+  </si>
+  <si>
+    <t>sentence(red hat)</t>
+  </si>
+  <si>
+    <t>listen(optional)</t>
+  </si>
+  <si>
+    <t>diary(optional)</t>
+  </si>
+  <si>
+    <t>speaking(optional)</t>
+  </si>
+  <si>
+    <t>总番茄时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">唐迟基础阅读视频完结 </t>
+  </si>
+  <si>
+    <t>单词背诵 第一遍</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>英语二 真题 (张剑黄皮书)</t>
+  </si>
+  <si>
+    <t>英语一真题 每天2篇</t>
+  </si>
+  <si>
+    <t>数学/逻辑</t>
+  </si>
+  <si>
     <t>C++ primer</t>
   </si>
   <si>
@@ -450,6 +515,33 @@
   </si>
   <si>
     <t>认可度</t>
+  </si>
+  <si>
+    <t>上海交大安泰</t>
+  </si>
+  <si>
+    <t>上海交大安泰EMBA</t>
+  </si>
+  <si>
+    <t>上海交大高金MBA</t>
+  </si>
+  <si>
+    <t>同济大学</t>
+  </si>
+  <si>
+    <t>华东师范</t>
+  </si>
+  <si>
+    <t>东华大学</t>
+  </si>
+  <si>
+    <t>GMAT考试成绩630分</t>
+  </si>
+  <si>
+    <t>上海交大安泰经济与管理学院 MBA 项目</t>
+  </si>
+  <si>
+    <t>一票通过</t>
   </si>
 </sst>
 </file>
@@ -457,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -471,17 +563,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF1A1A1A"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="18"/>
@@ -513,15 +605,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,14 +638,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -566,32 +652,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,28 +689,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -650,7 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,6 +760,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -698,12 +808,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -722,7 +826,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,7 +922,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,157 +994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,17 +1032,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -954,6 +1064,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,8 +1095,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,21 +1111,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,234 +1119,255 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1598,7 +1723,7 @@
   <sheetPr/>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
@@ -1606,7 +1731,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="10" width="12.875"/>
     <col min="11" max="11" width="14.5"/>
@@ -1617,953 +1742,969 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32">
-      <c r="B1" s="2">
+      <c r="B1" s="3">
         <v>43952</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="3">
         <v>43953</v>
       </c>
-      <c r="D1" s="14">
+      <c r="D1" s="22">
         <v>43954</v>
       </c>
-      <c r="E1" s="15">
+      <c r="E1" s="23">
         <v>43955</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="3">
         <v>43956</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="3">
         <v>43957</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="3">
         <v>43958</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="3">
         <v>43959</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="3">
         <v>43960</v>
       </c>
-      <c r="K1" s="14">
+      <c r="K1" s="22">
         <v>43961</v>
       </c>
-      <c r="L1" s="15">
+      <c r="L1" s="23">
         <v>43962</v>
       </c>
-      <c r="M1" s="15">
+      <c r="M1" s="23">
         <v>43963</v>
       </c>
-      <c r="N1" s="15">
+      <c r="N1" s="23">
         <v>43964</v>
       </c>
-      <c r="O1" s="15">
+      <c r="O1" s="23">
         <v>43965</v>
       </c>
-      <c r="P1" s="15">
+      <c r="P1" s="23">
         <v>43966</v>
       </c>
-      <c r="Q1" s="15">
+      <c r="Q1" s="23">
         <v>43967</v>
       </c>
-      <c r="R1" s="14">
+      <c r="R1" s="22">
         <v>43968</v>
       </c>
-      <c r="S1" s="15">
+      <c r="S1" s="23">
         <v>43969</v>
       </c>
-      <c r="T1" s="15">
+      <c r="T1" s="23">
         <v>43970</v>
       </c>
-      <c r="U1" s="15">
+      <c r="U1" s="23">
         <v>43971</v>
       </c>
-      <c r="V1" s="15">
+      <c r="V1" s="23">
         <v>43972</v>
       </c>
-      <c r="W1" s="15">
+      <c r="W1" s="23">
         <v>43973</v>
       </c>
-      <c r="X1" s="14">
+      <c r="X1" s="22">
         <v>43974</v>
       </c>
-      <c r="Y1" s="14">
+      <c r="Y1" s="22">
         <v>43975</v>
       </c>
-      <c r="Z1" s="15">
+      <c r="Z1" s="23">
         <v>43976</v>
       </c>
-      <c r="AA1" s="15">
+      <c r="AA1" s="23">
         <v>43977</v>
       </c>
-      <c r="AB1" s="15">
+      <c r="AB1" s="23">
         <v>43978</v>
       </c>
-      <c r="AC1" s="15">
+      <c r="AC1" s="23">
         <v>43979</v>
       </c>
-      <c r="AD1" s="15">
+      <c r="AD1" s="23">
         <v>43980</v>
       </c>
-      <c r="AE1" s="14">
+      <c r="AE1" s="22">
         <v>43981</v>
       </c>
-      <c r="AF1" s="14">
+      <c r="AF1" s="22">
         <v>43982</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="24">
         <v>0.395833333333333</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="24">
         <v>0.354166666666667</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="24">
         <v>0.34375</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="24">
         <v>0.34375</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="24">
         <v>0.34375</v>
       </c>
-      <c r="J2" s="16">
+      <c r="J2" s="24">
         <v>0.479166666666667</v>
       </c>
-      <c r="K2" s="16">
+      <c r="K2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="L2" s="16">
+      <c r="L2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="M2" s="16">
+      <c r="M2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="N2" s="16">
+      <c r="N2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="O2" s="16">
+      <c r="O2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="P2" s="16">
+      <c r="P2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="Q2" s="16">
+      <c r="Q2" s="24">
         <v>0.347222222222222</v>
       </c>
-      <c r="R2" s="16">
+      <c r="R2" s="24">
         <v>0.513888888888889</v>
       </c>
-      <c r="S2" s="16">
+      <c r="S2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="T2" s="16">
+      <c r="T2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="U2" s="16">
+      <c r="U2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="V2" s="16">
+      <c r="V2" s="24">
         <v>0.340277777777778</v>
       </c>
-      <c r="W2" s="16">
+      <c r="W2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="X2" s="16">
+      <c r="X2" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="Y2" s="16">
+      <c r="Y2" s="24">
         <v>0.416666666666667</v>
       </c>
-      <c r="Z2" s="16">
+      <c r="Z2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="AA2" s="16">
+      <c r="AA2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="AB2" s="16">
+      <c r="AB2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="AC2" s="16">
+      <c r="AC2" s="24">
         <v>0.333333333333333</v>
       </c>
-      <c r="AD2" s="16">
+      <c r="AD2" s="24">
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27">
         <v>64.7</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="27">
         <v>65.2</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="27">
         <v>64.5</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="19">
+      <c r="I4" s="28"/>
+      <c r="J4" s="27">
         <v>64.05</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="27">
         <v>64.95</v>
       </c>
-      <c r="L4" s="19">
+      <c r="L4" s="27">
         <v>65.35</v>
       </c>
-      <c r="M4" s="19">
+      <c r="M4" s="27">
         <v>64.75</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="27">
         <v>65.05</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="27">
         <v>64.45</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="27">
         <v>64.45</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="27">
         <v>64.05</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="27">
         <v>63.85</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="27">
         <v>64.65</v>
       </c>
-      <c r="T4" s="19">
+      <c r="T4" s="27">
         <v>63.9</v>
       </c>
-      <c r="U4" s="19">
+      <c r="U4" s="27">
         <v>63.55</v>
       </c>
-      <c r="V4" s="19">
+      <c r="V4" s="27">
         <v>63.7</v>
       </c>
-      <c r="W4" s="19">
+      <c r="W4" s="27">
         <v>64.15</v>
       </c>
-      <c r="X4" s="19">
+      <c r="X4" s="27">
         <v>63.1</v>
       </c>
-      <c r="Y4" s="19">
+      <c r="Y4" s="27">
         <v>63.1</v>
       </c>
-      <c r="Z4" s="19">
+      <c r="Z4" s="27">
         <v>64.2</v>
       </c>
-      <c r="AA4" s="19">
+      <c r="AA4" s="27">
         <v>63.2</v>
       </c>
-      <c r="AB4" s="19">
+      <c r="AB4" s="27">
         <v>63.25</v>
       </c>
-      <c r="AC4" s="19">
+      <c r="AC4" s="27">
         <v>63.25</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="27">
         <v>62.85</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="27">
         <v>15</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="27">
         <v>13</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="27">
         <v>24</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="27">
         <v>35</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="27">
         <v>49</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="27">
         <v>60</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="19">
+      <c r="M5" s="27">
         <v>2</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="27">
         <v>4</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="19" t="s">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="28"/>
+      <c r="X5" s="28"/>
+      <c r="Y5" s="28"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="28"/>
     </row>
     <row r="6" customFormat="1" spans="1:27">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="20"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="28"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
+      <c r="X6" s="28"/>
+      <c r="Y6" s="28"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="28"/>
     </row>
     <row r="7" customFormat="1" spans="1:30">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27">
         <v>30</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="27">
         <v>30</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="27">
         <v>60</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="27">
         <v>30</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="27">
         <v>30</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="27">
         <v>60</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="19">
+      <c r="K7" s="28"/>
+      <c r="L7" s="27">
         <v>120</v>
       </c>
-      <c r="M7" s="19">
+      <c r="M7" s="27">
         <v>30</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="27">
         <v>30</v>
       </c>
-      <c r="O7" s="19">
+      <c r="O7" s="27">
         <v>30</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="27">
         <v>30</v>
       </c>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="19">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="27">
         <v>30</v>
       </c>
-      <c r="S7" s="19">
+      <c r="S7" s="27">
         <v>30</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="27">
         <v>80</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="27">
         <v>80</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="27">
         <v>80</v>
       </c>
-      <c r="W7" s="19">
+      <c r="W7" s="27">
         <v>30</v>
       </c>
-      <c r="X7" s="19">
+      <c r="X7" s="27">
         <v>80</v>
       </c>
-      <c r="Y7" s="19">
+      <c r="Y7" s="27">
         <v>80</v>
       </c>
-      <c r="Z7" s="19">
+      <c r="Z7" s="27">
         <v>80</v>
       </c>
-      <c r="AA7" s="19">
+      <c r="AA7" s="27">
         <v>120</v>
       </c>
-      <c r="AB7" s="19">
+      <c r="AB7" s="27">
         <v>120</v>
       </c>
-      <c r="AC7" s="19">
+      <c r="AC7" s="27">
         <v>120</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="27">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
     </row>
     <row r="9" customFormat="1" spans="1:29">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="21"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="12"/>
     </row>
     <row r="10" customFormat="1" spans="1:27">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
         <v>60</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="27">
         <v>60</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="28" t="s">
+      <c r="F10" s="28"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="28" t="s">
+      <c r="L10" s="27"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19">
+      <c r="R10" s="28"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27">
         <v>60</v>
       </c>
-      <c r="V10" s="19">
+      <c r="V10" s="27">
         <v>45</v>
       </c>
-      <c r="W10" s="20"/>
-      <c r="X10" s="19" t="s">
+      <c r="W10" s="28"/>
+      <c r="X10" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="19"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="28"/>
+      <c r="AA10" s="27"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="27">
         <v>20</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="27">
         <v>20</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="27">
         <v>20</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="27">
         <v>20</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="27">
         <v>20</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="27">
         <v>20</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="27">
         <v>20</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="27">
         <v>20</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="27">
         <v>20</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="20"/>
-      <c r="Y12" s="20"/>
-      <c r="Z12" s="20"/>
-      <c r="AA12" s="20"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="20"/>
-      <c r="Y13" s="20"/>
-      <c r="Z13" s="20"/>
-      <c r="AA13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="20"/>
-      <c r="Y15" s="20"/>
-      <c r="Z15" s="20"/>
-      <c r="AA15" s="20"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="28"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="28"/>
+      <c r="W15" s="28"/>
+      <c r="X15" s="28"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="28"/>
+      <c r="AA15" s="28"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="20"/>
-      <c r="Z16" s="20"/>
-      <c r="AA16" s="20"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="20"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="19"/>
-      <c r="AA17" s="19"/>
-    </row>
-    <row r="18" s="12" customFormat="1" spans="1:1">
-      <c r="A18" s="22"/>
+      <c r="B17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="28"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+    </row>
+    <row r="18" s="20" customFormat="1" spans="1:1">
+      <c r="A18" s="29"/>
     </row>
     <row r="19" ht="20.25" spans="1:1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="30" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="20.25" spans="1:1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="30" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="1:1">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" s="13" customFormat="1" ht="20.25" spans="1:1">
-      <c r="A22" s="24"/>
+    <row r="22" s="21" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A22" s="31"/>
     </row>
     <row r="23" customFormat="1" spans="1:1">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="32" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="1" spans="1:18">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="27">
         <v>15</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="27">
         <v>30</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="27">
         <v>72</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="27">
         <v>50</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="27">
         <v>80</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="27">
         <v>174</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" spans="1:1">
-      <c r="A25" s="26"/>
+    <row r="25" s="21" customFormat="1" spans="1:1">
+      <c r="A25" s="33"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="M26" s="19"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="M26" s="27"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="27" t="s">
+      <c r="A27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="H27" s="19"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="19"/>
+      <c r="D28" s="27"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Z29" s="19"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="D30" s="27"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="34" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="27" t="s">
+      <c r="A34" s="34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="13" customFormat="1" spans="1:1">
-      <c r="A35" s="26"/>
+    <row r="35" s="21" customFormat="1" spans="1:1">
+      <c r="A35" s="33"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2572,260 +2713,412 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
   <cols>
-    <col min="1" max="1" width="41.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
     <col min="2" max="10" width="9.375"/>
+    <col min="11" max="30" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
-      <c r="B1" s="8">
+    <row r="1" spans="2:30">
+      <c r="B1" s="5">
         <v>43983</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="5">
         <v>43984</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="5">
         <v>43985</v>
       </c>
-      <c r="E1" s="8">
+      <c r="E1" s="5">
         <v>43986</v>
       </c>
-      <c r="F1" s="8">
+      <c r="F1" s="5">
         <v>43987</v>
       </c>
-      <c r="G1" s="8">
+      <c r="G1" s="5">
         <v>43988</v>
       </c>
-      <c r="H1" s="8">
+      <c r="H1" s="5">
         <v>43989</v>
       </c>
-      <c r="I1" s="8">
+      <c r="I1" s="5">
         <v>43990</v>
       </c>
-      <c r="J1" s="8">
+      <c r="J1" s="5">
         <v>43991</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="K1" s="5">
+        <v>43992</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43993</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43994</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43995</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43996</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43997</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>43998</v>
+      </c>
+      <c r="R1" s="5">
+        <v>43999</v>
+      </c>
+      <c r="S1" s="5">
+        <v>44000</v>
+      </c>
+      <c r="T1" s="5">
+        <v>44001</v>
+      </c>
+      <c r="U1" s="5">
+        <v>44002</v>
+      </c>
+      <c r="V1" s="5">
+        <v>44003</v>
+      </c>
+      <c r="W1" s="5">
+        <v>44004</v>
+      </c>
+      <c r="X1" s="5">
+        <v>44005</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>44006</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>44007</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>44008</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>44009</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>44010</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>44011</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" spans="1:1">
+      <c r="A2" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:19">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="10">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.385416666666667</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.423611111111111</v>
+      </c>
+      <c r="S3" s="10">
+        <v>0.417361111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="B4" s="11">
+        <v>63.25</v>
+      </c>
+      <c r="C4" s="11">
+        <v>62.6</v>
+      </c>
+      <c r="D4" s="11">
+        <v>62.8</v>
+      </c>
+      <c r="K4" s="11">
+        <v>62.95</v>
+      </c>
+      <c r="M4" s="11">
+        <v>63</v>
+      </c>
+      <c r="S4" s="11">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="P6" s="11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="11"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="1:1">
-      <c r="A13" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" s="17" customFormat="1" spans="1:1">
+      <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="B19" s="18"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>48</v>
-      </c>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" s="6" customFormat="1" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" s="6" customFormat="1" spans="1:1">
-      <c r="A24" s="9" t="s">
+      <c r="A23" s="9"/>
+    </row>
+    <row r="24" s="17" customFormat="1" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+    <row r="26" s="17" customFormat="1" spans="1:1">
+      <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" s="6" customFormat="1" spans="1:1">
+    <row r="27" spans="1:1">
       <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" ht="21" customHeight="1" spans="1:1">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+    <row r="29" s="17" customFormat="1" spans="1:1">
+      <c r="A29" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" ht="21" customHeight="1" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" s="6" customFormat="1" spans="1:1">
-      <c r="A36" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+    <row r="38" s="17" customFormat="1" spans="1:1">
+      <c r="A38" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="11"/>
-    </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="11"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="11"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="11"/>
+      <c r="A41" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="14"/>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="14"/>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="11"/>
+      <c r="A44" s="14"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11"/>
+      <c r="A45" s="14"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="11"/>
+      <c r="A46" s="14"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="11"/>
+      <c r="A47" s="14"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="14"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2834,6 +3127,725 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q35" sqref="Q35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <cols>
+    <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="10" width="9.375"/>
+    <col min="11" max="21" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21">
+      <c r="B1" s="5">
+        <v>44013</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44014</v>
+      </c>
+      <c r="D1" s="5">
+        <v>44015</v>
+      </c>
+      <c r="E1" s="7">
+        <v>44016</v>
+      </c>
+      <c r="F1" s="7">
+        <v>44017</v>
+      </c>
+      <c r="G1" s="5">
+        <v>44018</v>
+      </c>
+      <c r="H1" s="5">
+        <v>44019</v>
+      </c>
+      <c r="I1" s="5">
+        <v>44020</v>
+      </c>
+      <c r="J1" s="5">
+        <v>44021</v>
+      </c>
+      <c r="K1" s="5">
+        <v>44022</v>
+      </c>
+      <c r="L1" s="7">
+        <v>44023</v>
+      </c>
+      <c r="M1" s="7">
+        <v>44024</v>
+      </c>
+      <c r="N1" s="5">
+        <v>44025</v>
+      </c>
+      <c r="O1" s="5">
+        <v>44026</v>
+      </c>
+      <c r="P1" s="5">
+        <v>44027</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>44028</v>
+      </c>
+      <c r="R1" s="5">
+        <v>44029</v>
+      </c>
+      <c r="S1" s="16">
+        <v>44030</v>
+      </c>
+      <c r="T1" s="16">
+        <v>44031</v>
+      </c>
+      <c r="U1" s="5">
+        <v>44032</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="I3" s="10">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="L3" s="10">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="M3" s="10">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="N3" s="10">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="O3" s="10">
+        <v>0.392361111111111</v>
+      </c>
+      <c r="P3" s="10">
+        <v>0.378472222222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11">
+        <v>62.35</v>
+      </c>
+      <c r="C4" s="11">
+        <v>62.05</v>
+      </c>
+      <c r="D4" s="11">
+        <v>61.85</v>
+      </c>
+      <c r="E4" s="11">
+        <v>61.95</v>
+      </c>
+      <c r="F4" s="11">
+        <v>62.25</v>
+      </c>
+      <c r="G4" s="11">
+        <v>62.05</v>
+      </c>
+      <c r="H4" s="11">
+        <v>62.65</v>
+      </c>
+      <c r="I4" s="11">
+        <v>62.51</v>
+      </c>
+      <c r="J4" s="11">
+        <v>63.3</v>
+      </c>
+      <c r="K4" s="11">
+        <v>62.55</v>
+      </c>
+      <c r="L4" s="11">
+        <v>62.75</v>
+      </c>
+      <c r="M4" s="11">
+        <v>62.4</v>
+      </c>
+      <c r="N4" s="11">
+        <v>62</v>
+      </c>
+      <c r="O4" s="11">
+        <v>62.3</v>
+      </c>
+      <c r="P4" s="11">
+        <v>61.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="O6" s="12"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="15"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="11">
+        <v>4</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>2</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11">
+        <v>2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2</v>
+      </c>
+      <c r="I12" s="11">
+        <v>3.5</v>
+      </c>
+      <c r="J12" s="11">
+        <v>3</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1</v>
+      </c>
+      <c r="O12" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="11">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2</v>
+      </c>
+      <c r="I13" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2</v>
+      </c>
+      <c r="O13" s="11">
+        <v>2</v>
+      </c>
+      <c r="P13" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="11">
+        <v>2</v>
+      </c>
+      <c r="H24" s="11">
+        <v>2</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+      <c r="K24" s="11">
+        <v>5</v>
+      </c>
+      <c r="N24" s="11">
+        <v>5</v>
+      </c>
+      <c r="O24" s="11">
+        <v>3</v>
+      </c>
+      <c r="P24" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="11">
+        <v>9</v>
+      </c>
+      <c r="C35" s="11">
+        <v>8</v>
+      </c>
+      <c r="D35" s="11">
+        <v>5</v>
+      </c>
+      <c r="G35" s="11">
+        <v>7</v>
+      </c>
+      <c r="H35" s="11">
+        <v>6</v>
+      </c>
+      <c r="I35" s="11">
+        <v>7</v>
+      </c>
+      <c r="J35" s="11">
+        <v>6</v>
+      </c>
+      <c r="K35" s="11">
+        <v>5</v>
+      </c>
+      <c r="N35" s="11">
+        <v>6</v>
+      </c>
+      <c r="O35" s="11">
+        <v>7</v>
+      </c>
+      <c r="P35" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="14"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" ht="13.5" spans="1:1">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" spans="1:1">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="10" width="9.375"/>
+    <col min="11" max="16" width="10.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" s="5">
+        <v>43983</v>
+      </c>
+      <c r="C1" s="5">
+        <v>43984</v>
+      </c>
+      <c r="D1" s="5">
+        <v>43985</v>
+      </c>
+      <c r="E1" s="5">
+        <v>43986</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43987</v>
+      </c>
+      <c r="G1" s="5">
+        <v>43988</v>
+      </c>
+      <c r="H1" s="5">
+        <v>43989</v>
+      </c>
+      <c r="I1" s="5">
+        <v>43990</v>
+      </c>
+      <c r="J1" s="5">
+        <v>43991</v>
+      </c>
+      <c r="K1" s="5">
+        <v>43992</v>
+      </c>
+      <c r="L1" s="5">
+        <v>43993</v>
+      </c>
+      <c r="M1" s="5">
+        <v>43994</v>
+      </c>
+      <c r="N1" s="5">
+        <v>43995</v>
+      </c>
+      <c r="O1" s="5">
+        <v>43996</v>
+      </c>
+      <c r="P1" s="5">
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:B34"/>
@@ -2852,100 +3864,100 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +3966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:E50"/>
@@ -3000,119 +4012,119 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="D20" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -3122,17 +4134,17 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -3147,27 +4159,27 @@
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +4189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:K40"/>
@@ -3188,26 +4200,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
   <cols>
-    <col min="2" max="2" width="54.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
     <col min="5" max="11" width="12.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:11">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" ht="13.5" spans="2:2">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="2:2">
@@ -3215,7 +4227,7 @@
     </row>
     <row r="4" ht="13.5" spans="2:2">
       <c r="B4" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="2:2">
@@ -3225,17 +4237,17 @@
     </row>
     <row r="6" ht="13.5" spans="2:2">
       <c r="B6" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="2:2">
       <c r="B7" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:2">
       <c r="B8" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="2:2">
@@ -3243,7 +4255,7 @@
     </row>
     <row r="10" ht="13.5" spans="2:2">
       <c r="B10" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="2:2">
@@ -3256,118 +4268,118 @@
     </row>
     <row r="13" ht="13.5" spans="2:2">
       <c r="B13" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="2:2">
       <c r="B14" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:2">
       <c r="B15" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="2:2">
       <c r="B16" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="1" t="s">
-        <v>117</v>
+      <c r="B19" s="2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="3" t="s">
-        <v>118</v>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
-        <v>119</v>
+      <c r="B21" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>120</v>
+      <c r="B22" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="1" t="s">
-        <v>121</v>
+      <c r="B23" s="2" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="1" t="s">
-        <v>122</v>
+      <c r="B25" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="1" t="s">
-        <v>47</v>
+      <c r="B26" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="1" t="s">
-        <v>123</v>
+      <c r="B27" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="1" t="s">
-        <v>124</v>
+      <c r="B28" s="2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="1" t="s">
-        <v>125</v>
+      <c r="B29" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="1" t="s">
-        <v>126</v>
+      <c r="B30" s="2" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="1" t="s">
-        <v>45</v>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="1" t="s">
-        <v>127</v>
+      <c r="B32" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="1" t="s">
-        <v>128</v>
+      <c r="B34" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="1" t="s">
-        <v>129</v>
+      <c r="B36" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="1" t="s">
-        <v>130</v>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" ht="18" spans="2:3">
-      <c r="B39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>132</v>
+      <c r="B39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="40" ht="18" spans="2:3">
-      <c r="B40" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>134</v>
+      <c r="B40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3377,7 +4389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:B5"/>
@@ -3393,12 +4405,12 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -3408,12 +4420,12 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="2:2">
-      <c r="B5" s="1" t="s">
-        <v>51</v>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -3422,52 +4434,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C1" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/daily.xlsx
+++ b/daily.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="每日习惯" sheetId="4" r:id="rId1"/>
-    <sheet name="6月" sheetId="8" r:id="rId2"/>
-    <sheet name="7月" sheetId="11" r:id="rId3"/>
-    <sheet name="daily_report" sheetId="10" r:id="rId4"/>
-    <sheet name="book_list" sheetId="5" r:id="rId5"/>
-    <sheet name="草稿" sheetId="1" r:id="rId6"/>
-    <sheet name="daily_todo" sheetId="3" r:id="rId7"/>
-    <sheet name="Motto" sheetId="6" r:id="rId8"/>
-    <sheet name="mba" sheetId="7" r:id="rId9"/>
-    <sheet name="mba书籍" sheetId="9" r:id="rId10"/>
+    <sheet name="每日习惯" sheetId="1" r:id="rId1"/>
+    <sheet name="6月" sheetId="2" r:id="rId2"/>
+    <sheet name="7月" sheetId="3" r:id="rId3"/>
+    <sheet name="8月" sheetId="4" r:id="rId4"/>
+    <sheet name="9月" sheetId="5" r:id="rId5"/>
+    <sheet name="book_list" sheetId="7" r:id="rId6"/>
+    <sheet name="草稿" sheetId="8" r:id="rId7"/>
+    <sheet name="daily_todo" sheetId="9" r:id="rId8"/>
+    <sheet name="Motto" sheetId="10" r:id="rId9"/>
+    <sheet name="mba" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="218">
   <si>
     <t>起床时间</t>
   </si>
@@ -211,6 +211,9 @@
     <t>减肥1KG</t>
   </si>
   <si>
+    <t>睡觉时间</t>
+  </si>
+  <si>
     <t>squat  100</t>
   </si>
   <si>
@@ -232,6 +235,9 @@
     <t>sentence(red hat)</t>
   </si>
   <si>
+    <t>一日断食</t>
+  </si>
+  <si>
     <t>listen(optional)</t>
   </si>
   <si>
@@ -241,9 +247,33 @@
     <t>speaking(optional)</t>
   </si>
   <si>
+    <t>24小时断食</t>
+  </si>
+  <si>
     <t>总番茄时间</t>
   </si>
   <si>
+    <t>VHE</t>
+  </si>
+  <si>
+    <t>英语阅读</t>
+  </si>
+  <si>
+    <t>2005阅读翻译全文</t>
+  </si>
+  <si>
+    <t>第二章完结</t>
+  </si>
+  <si>
+    <t>3.1完结</t>
+  </si>
+  <si>
+    <t>论证推理听课</t>
+  </si>
+  <si>
+    <t>数学分册开始，最晚本月结束</t>
+  </si>
+  <si>
     <t xml:space="preserve">唐迟基础阅读视频完结 </t>
   </si>
   <si>
@@ -262,12 +292,120 @@
     <t>数学/逻辑</t>
   </si>
   <si>
+    <t>散步</t>
+  </si>
+  <si>
+    <t>数学书籍</t>
+  </si>
+  <si>
+    <t>数学高分指南</t>
+  </si>
+  <si>
+    <t>第一章完结</t>
+  </si>
+  <si>
+    <t>逻辑书籍</t>
+  </si>
+  <si>
+    <t>论证推理</t>
+  </si>
+  <si>
+    <t>4.5完结</t>
+  </si>
+  <si>
+    <t>4.7完结</t>
+  </si>
+  <si>
+    <t>4.8完结</t>
+  </si>
+  <si>
+    <t>7章完结</t>
+  </si>
+  <si>
+    <t>论证推理完结</t>
+  </si>
+  <si>
+    <t>逻辑真题精讲</t>
+  </si>
+  <si>
+    <t>写作</t>
+  </si>
+  <si>
+    <t>英语造句</t>
+  </si>
+  <si>
+    <t>一天50个句子</t>
+  </si>
+  <si>
+    <t>英语阅读，翻译全文</t>
+  </si>
+  <si>
+    <t>一天2个阅读</t>
+  </si>
+  <si>
+    <t>英语作文题材</t>
+  </si>
+  <si>
+    <t>看需要</t>
+  </si>
+  <si>
+    <t>逻辑写作素材</t>
+  </si>
+  <si>
+    <t>数学高分指南，1000题</t>
+  </si>
+  <si>
+    <t>8/20前</t>
+  </si>
+  <si>
+    <t>论证推理 听课+做题</t>
+  </si>
+  <si>
+    <t>8/15前</t>
+  </si>
+  <si>
+    <t>15前第一轮复习结束</t>
+  </si>
+  <si>
+    <t>王成 写作</t>
+  </si>
+  <si>
+    <t>鑫全写作</t>
+  </si>
+  <si>
+    <t>王江涛的《考研英语高分写作</t>
+  </si>
+  <si>
+    <t>软件工程（PMP）</t>
+  </si>
+  <si>
     <t>C++ primer</t>
   </si>
   <si>
     <t>C++ 程序设计语言</t>
   </si>
   <si>
+    <t>c++设计与演化</t>
+  </si>
+  <si>
+    <t>Bjarne Stroustrup</t>
+  </si>
+  <si>
+    <r>
+      <t>C++</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF666666"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>程序设计：原理与实践</t>
+    </r>
+  </si>
+  <si>
     <t>Effective C++</t>
   </si>
   <si>
@@ -277,7 +415,19 @@
     <t>Exceptional C++</t>
   </si>
   <si>
-    <t>标准库</t>
+    <t>c++ concurrency in action</t>
+  </si>
+  <si>
+    <t>c++ 标准程序库</t>
+  </si>
+  <si>
+    <t>stl 源码剖析</t>
+  </si>
+  <si>
+    <t>linux 多线程服务端编程</t>
+  </si>
+  <si>
+    <t>对象模型</t>
   </si>
   <si>
     <t>C</t>
@@ -362,9 +512,6 @@
   </si>
   <si>
     <t>60KG</t>
-  </si>
-  <si>
-    <t>睡觉时间</t>
   </si>
   <si>
     <t>王道习题</t>
@@ -554,7 +701,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,10 +723,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,8 +803,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,7 +841,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -622,30 +873,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -659,75 +887,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color rgb="FF666666"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -736,7 +903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,19 +921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -802,12 +993,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -826,7 +1011,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,7 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,49 +1131,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +1155,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,85 +1173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1196,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1025,6 +1219,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1076,53 +1296,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1131,137 +1316,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1277,101 +1462,125 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="20" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="20" fontId="0" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1425,7 +1634,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1723,13 +1932,13 @@
   <sheetPr/>
   <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.875" customWidth="1"/>
@@ -1748,10 +1957,10 @@
       <c r="C1" s="3">
         <v>43953</v>
       </c>
-      <c r="D1" s="22">
+      <c r="D1" s="32">
         <v>43954</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="33">
         <v>43955</v>
       </c>
       <c r="F1" s="3">
@@ -1769,909 +1978,909 @@
       <c r="J1" s="3">
         <v>43960</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="32">
         <v>43961</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1" s="33">
         <v>43962</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1" s="33">
         <v>43963</v>
       </c>
-      <c r="N1" s="23">
+      <c r="N1" s="33">
         <v>43964</v>
       </c>
-      <c r="O1" s="23">
+      <c r="O1" s="33">
         <v>43965</v>
       </c>
-      <c r="P1" s="23">
+      <c r="P1" s="33">
         <v>43966</v>
       </c>
-      <c r="Q1" s="23">
+      <c r="Q1" s="33">
         <v>43967</v>
       </c>
-      <c r="R1" s="22">
+      <c r="R1" s="32">
         <v>43968</v>
       </c>
-      <c r="S1" s="23">
+      <c r="S1" s="33">
         <v>43969</v>
       </c>
-      <c r="T1" s="23">
+      <c r="T1" s="33">
         <v>43970</v>
       </c>
-      <c r="U1" s="23">
+      <c r="U1" s="33">
         <v>43971</v>
       </c>
-      <c r="V1" s="23">
+      <c r="V1" s="33">
         <v>43972</v>
       </c>
-      <c r="W1" s="23">
+      <c r="W1" s="33">
         <v>43973</v>
       </c>
-      <c r="X1" s="22">
+      <c r="X1" s="32">
         <v>43974</v>
       </c>
-      <c r="Y1" s="22">
+      <c r="Y1" s="32">
         <v>43975</v>
       </c>
-      <c r="Z1" s="23">
+      <c r="Z1" s="33">
         <v>43976</v>
       </c>
-      <c r="AA1" s="23">
+      <c r="AA1" s="33">
         <v>43977</v>
       </c>
-      <c r="AB1" s="23">
+      <c r="AB1" s="33">
         <v>43978</v>
       </c>
-      <c r="AC1" s="23">
+      <c r="AC1" s="33">
         <v>43979</v>
       </c>
-      <c r="AD1" s="23">
+      <c r="AD1" s="33">
         <v>43980</v>
       </c>
-      <c r="AE1" s="22">
+      <c r="AE1" s="32">
         <v>43981</v>
       </c>
-      <c r="AF1" s="22">
+      <c r="AF1" s="32">
         <v>43982</v>
       </c>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
+      <c r="B2" s="34">
         <v>0.395833333333333</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="34">
         <v>0.395833333333333</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="34">
         <v>0.354166666666667</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="34">
         <v>0.34375</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="34">
         <v>0.34375</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="34">
         <v>0.34375</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="34">
         <v>0.479166666666667</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="M2" s="24">
+      <c r="M2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="O2" s="24">
+      <c r="O2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="P2" s="24">
+      <c r="P2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="Q2" s="34">
         <v>0.347222222222222</v>
       </c>
-      <c r="R2" s="24">
+      <c r="R2" s="34">
         <v>0.513888888888889</v>
       </c>
-      <c r="S2" s="24">
+      <c r="S2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="U2" s="24">
+      <c r="U2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="V2" s="24">
+      <c r="V2" s="34">
         <v>0.340277777777778</v>
       </c>
-      <c r="W2" s="24">
+      <c r="W2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="X2" s="24">
+      <c r="X2" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="Y2" s="24">
+      <c r="Y2" s="34">
         <v>0.416666666666667</v>
       </c>
-      <c r="Z2" s="24">
+      <c r="Z2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="AA2" s="24">
+      <c r="AA2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="AC2" s="24">
+      <c r="AC2" s="34">
         <v>0.333333333333333</v>
       </c>
-      <c r="AD2" s="24">
+      <c r="AD2" s="34">
         <v>0.333333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27">
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37">
         <v>64.7</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="37">
         <v>65.2</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="37">
         <v>64.5</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27">
+      <c r="I4" s="26"/>
+      <c r="J4" s="37">
         <v>64.05</v>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="37">
         <v>64.95</v>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="37">
         <v>65.35</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="37">
         <v>64.75</v>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="37">
         <v>65.05</v>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="37">
         <v>64.45</v>
       </c>
-      <c r="P4" s="27">
+      <c r="P4" s="37">
         <v>64.45</v>
       </c>
-      <c r="Q4" s="27">
+      <c r="Q4" s="37">
         <v>64.05</v>
       </c>
-      <c r="R4" s="27">
+      <c r="R4" s="37">
         <v>63.85</v>
       </c>
-      <c r="S4" s="27">
+      <c r="S4" s="37">
         <v>64.65</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="37">
         <v>63.9</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="37">
         <v>63.55</v>
       </c>
-      <c r="V4" s="27">
+      <c r="V4" s="37">
         <v>63.7</v>
       </c>
-      <c r="W4" s="27">
+      <c r="W4" s="37">
         <v>64.15</v>
       </c>
-      <c r="X4" s="27">
+      <c r="X4" s="37">
         <v>63.1</v>
       </c>
-      <c r="Y4" s="27">
+      <c r="Y4" s="37">
         <v>63.1</v>
       </c>
-      <c r="Z4" s="27">
+      <c r="Z4" s="37">
         <v>64.2</v>
       </c>
-      <c r="AA4" s="27">
+      <c r="AA4" s="37">
         <v>63.2</v>
       </c>
-      <c r="AB4" s="27">
+      <c r="AB4" s="37">
         <v>63.25</v>
       </c>
-      <c r="AC4" s="27">
+      <c r="AC4" s="37">
         <v>63.25</v>
       </c>
-      <c r="AD4" s="27">
+      <c r="AD4" s="37">
         <v>62.85</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="37">
         <v>15</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="37">
         <v>13</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="37">
         <v>24</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="37">
         <v>35</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="37">
         <v>49</v>
       </c>
-      <c r="J5" s="27">
+      <c r="J5" s="37">
         <v>60</v>
       </c>
-      <c r="K5" s="28"/>
-      <c r="L5" s="27" t="s">
+      <c r="K5" s="26"/>
+      <c r="L5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="37">
         <v>2</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="37">
         <v>4</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="27" t="s">
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
-      <c r="Z5" s="28"/>
-      <c r="AA5" s="28"/>
-    </row>
-    <row r="6" customFormat="1" spans="1:27">
-      <c r="A6" s="19" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="28"/>
-      <c r="Z6" s="28"/>
-      <c r="AA6" s="28"/>
-    </row>
-    <row r="7" customFormat="1" spans="1:30">
-      <c r="A7" s="19" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
         <v>30</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="37">
         <v>30</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="37">
         <v>60</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="37">
         <v>30</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="37">
         <v>30</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="37">
         <v>60</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="27">
+      <c r="K7" s="26"/>
+      <c r="L7" s="37">
         <v>120</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="37">
         <v>30</v>
       </c>
-      <c r="N7" s="27">
+      <c r="N7" s="37">
         <v>30</v>
       </c>
-      <c r="O7" s="27">
+      <c r="O7" s="37">
         <v>30</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="37">
         <v>30</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="27">
+      <c r="Q7" s="26"/>
+      <c r="R7" s="37">
         <v>30</v>
       </c>
-      <c r="S7" s="27">
+      <c r="S7" s="37">
         <v>30</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="37">
         <v>80</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="37">
         <v>80</v>
       </c>
-      <c r="V7" s="27">
+      <c r="V7" s="37">
         <v>80</v>
       </c>
-      <c r="W7" s="27">
+      <c r="W7" s="37">
         <v>30</v>
       </c>
-      <c r="X7" s="27">
+      <c r="X7" s="37">
         <v>80</v>
       </c>
-      <c r="Y7" s="27">
+      <c r="Y7" s="37">
         <v>80</v>
       </c>
-      <c r="Z7" s="27">
+      <c r="Z7" s="37">
         <v>80</v>
       </c>
-      <c r="AA7" s="27">
+      <c r="AA7" s="37">
         <v>120</v>
       </c>
-      <c r="AB7" s="27">
+      <c r="AB7" s="37">
         <v>120</v>
       </c>
-      <c r="AC7" s="27">
+      <c r="AC7" s="37">
         <v>120</v>
       </c>
-      <c r="AD7" s="27">
+      <c r="AD7" s="37">
         <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="27" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
-      <c r="AA8" s="28"/>
-    </row>
-    <row r="9" customFormat="1" spans="1:29">
-      <c r="A9" s="19" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="12"/>
-    </row>
-    <row r="10" customFormat="1" spans="1:27">
-      <c r="A10" s="19" t="s">
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="19"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37">
         <v>60</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="37">
         <v>60</v>
       </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="35" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="27"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="35" t="s">
+      <c r="L10" s="37"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27">
+      <c r="R10" s="26"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37">
         <v>60</v>
       </c>
-      <c r="V10" s="27">
+      <c r="V10" s="37">
         <v>45</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="27" t="s">
+      <c r="W10" s="26"/>
+      <c r="X10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="27"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
+      <c r="AA10" s="37"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="37">
         <v>20</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="37">
         <v>20</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="37">
         <v>20</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="37">
         <v>20</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="37">
         <v>20</v>
       </c>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
-      <c r="AA11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
+      <c r="AA11" s="26"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="27">
+      <c r="D12" s="37">
         <v>20</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="37">
         <v>20</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="37">
         <v>20</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="37">
         <v>20</v>
       </c>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-      <c r="X13" s="28"/>
-      <c r="Y13" s="28"/>
-      <c r="Z13" s="28"/>
-      <c r="AA13" s="28"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-      <c r="X15" s="28"/>
-      <c r="Y15" s="28"/>
-      <c r="Z15" s="28"/>
-      <c r="AA15" s="28"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="27"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27"/>
-    </row>
-    <row r="18" s="20" customFormat="1" spans="1:1">
-      <c r="A18" s="29"/>
+      <c r="B17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+    </row>
+    <row r="18" s="30" customFormat="1" spans="1:1">
+      <c r="A18" s="38"/>
     </row>
     <row r="19" ht="20.25" spans="1:1">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="20.25" spans="1:1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" ht="20.25" spans="1:1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" s="21" customFormat="1" ht="20.25" spans="1:1">
-      <c r="A22" s="31"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:1">
-      <c r="A23" s="32" t="s">
+    <row r="22" s="31" customFormat="1" ht="20.25" spans="1:1">
+      <c r="A22" s="40"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:18">
-      <c r="A24" s="32" t="s">
+    <row r="24" spans="1:18">
+      <c r="A24" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="37">
         <v>15</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="37">
         <v>30</v>
       </c>
-      <c r="O24" s="27">
+      <c r="O24" s="37">
         <v>72</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="37">
         <v>50</v>
       </c>
-      <c r="Q24" s="27">
+      <c r="Q24" s="37">
         <v>80</v>
       </c>
-      <c r="R24" s="27">
+      <c r="R24" s="37">
         <v>174</v>
       </c>
     </row>
-    <row r="25" s="21" customFormat="1" spans="1:1">
-      <c r="A25" s="33"/>
+    <row r="25" s="31" customFormat="1" spans="1:1">
+      <c r="A25" s="42"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="M26" s="27"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="H27" s="27"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="27"/>
+      <c r="D28" s="37"/>
     </row>
     <row r="29" spans="1:29">
-      <c r="A29" s="34" t="s">
+      <c r="A29" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
-      <c r="AB29" s="27"/>
-      <c r="AC29" s="27"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="D30" s="37"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="43" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="34" t="s">
+      <c r="A32" s="43" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="43" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="43" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" s="21" customFormat="1" spans="1:1">
-      <c r="A35" s="33"/>
+    <row r="35" s="31" customFormat="1" spans="1:1">
+      <c r="A35" s="42"/>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="6" t="s">
@@ -2697,14 +2906,75 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2716,10 +2986,10 @@
   <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
     <col min="2" max="10" width="9.375"/>
@@ -2727,398 +2997,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:30">
-      <c r="B1" s="5">
+      <c r="B1" s="21">
         <v>43983</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="21">
         <v>43984</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="21">
         <v>43985</v>
       </c>
-      <c r="E1" s="5">
+      <c r="E1" s="21">
         <v>43986</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="21">
         <v>43987</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="21">
         <v>43988</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="21">
         <v>43989</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="21">
         <v>43990</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="21">
         <v>43991</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="21">
         <v>43992</v>
       </c>
-      <c r="L1" s="5">
+      <c r="L1" s="21">
         <v>43993</v>
       </c>
-      <c r="M1" s="5">
+      <c r="M1" s="21">
         <v>43994</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="21">
         <v>43995</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="21">
         <v>43996</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="21">
         <v>43997</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="21">
         <v>43998</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="21">
         <v>43999</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="21">
         <v>44000</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="21">
         <v>44001</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="21">
         <v>44002</v>
       </c>
-      <c r="V1" s="5">
+      <c r="V1" s="21">
         <v>44003</v>
       </c>
-      <c r="W1" s="5">
+      <c r="W1" s="21">
         <v>44004</v>
       </c>
-      <c r="X1" s="5">
+      <c r="X1" s="21">
         <v>44005</v>
       </c>
-      <c r="Y1" s="5">
+      <c r="Y1" s="21">
         <v>44006</v>
       </c>
-      <c r="Z1" s="5">
+      <c r="Z1" s="21">
         <v>44007</v>
       </c>
-      <c r="AA1" s="5">
+      <c r="AA1" s="21">
         <v>44008</v>
       </c>
-      <c r="AB1" s="5">
+      <c r="AB1" s="21">
         <v>44009</v>
       </c>
-      <c r="AC1" s="5">
+      <c r="AC1" s="21">
         <v>44010</v>
       </c>
-      <c r="AD1" s="5">
+      <c r="AD1" s="21">
         <v>44011</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" spans="1:1">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="28" customFormat="1" spans="1:1">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="23">
         <v>0.336805555555556</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="23">
         <v>0.427083333333333</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="23">
         <v>0.385416666666667</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="23">
         <v>0.479166666666667</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="23">
         <v>0.423611111111111</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="23">
         <v>0.417361111111111</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>63.25</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>62.6</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>62.8</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
         <v>62.95</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="14">
         <v>63</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="14">
         <v>62.9</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="R5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="14"/>
+      <c r="J5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="P6" s="11">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="P6" s="14">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="14">
         <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" s="17" customFormat="1" spans="1:1">
-      <c r="A14" s="8" t="s">
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" s="28" customFormat="1" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9"/>
-    </row>
-    <row r="24" s="17" customFormat="1" spans="1:1">
-      <c r="A24" s="8" t="s">
+      <c r="A23" s="10"/>
+    </row>
+    <row r="24" s="28" customFormat="1" spans="1:1">
+      <c r="A24" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" s="17" customFormat="1" spans="1:1">
-      <c r="A26" s="8" t="s">
+    <row r="26" s="28" customFormat="1" spans="1:1">
+      <c r="A26" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" s="17" customFormat="1" spans="1:1">
-      <c r="A29" s="8" t="s">
+    <row r="29" s="28" customFormat="1" spans="1:1">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="30" ht="21" customHeight="1" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="38" s="17" customFormat="1" spans="1:1">
-      <c r="A38" s="8" t="s">
+    <row r="38" s="28" customFormat="1" spans="1:1">
+      <c r="A38" s="9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="14"/>
+      <c r="A42" s="25"/>
       <c r="C42" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="14"/>
+      <c r="A43" s="25"/>
       <c r="C43" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="14"/>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="14"/>
+      <c r="A45" s="25"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="14"/>
+      <c r="A46" s="25"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="14"/>
+      <c r="A47" s="25"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="14"/>
+      <c r="A48" s="25"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="14"/>
+      <c r="A49" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3129,550 +3399,965 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:AG51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="$A23:$XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="22.5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="22.5"/>
   <cols>
     <col min="1" max="1" width="41.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="11.4583333333333" customWidth="1"/>
+    <col min="3" max="3" width="10.2916666666667" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="10" width="9.375"/>
-    <col min="11" max="21" width="10.375"/>
+    <col min="11" max="27" width="10.375"/>
+    <col min="28" max="28" width="11.4583333333333" customWidth="1"/>
+    <col min="29" max="32" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21">
-      <c r="B1" s="5">
+    <row r="1" spans="2:32">
+      <c r="B1" s="21">
         <v>44013</v>
       </c>
-      <c r="C1" s="5">
+      <c r="C1" s="21">
         <v>44014</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="21">
         <v>44015</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="24">
         <v>44016</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="24">
         <v>44017</v>
       </c>
-      <c r="G1" s="5">
+      <c r="G1" s="21">
         <v>44018</v>
       </c>
-      <c r="H1" s="5">
+      <c r="H1" s="21">
         <v>44019</v>
       </c>
-      <c r="I1" s="5">
+      <c r="I1" s="21">
         <v>44020</v>
       </c>
-      <c r="J1" s="5">
+      <c r="J1" s="21">
         <v>44021</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="21">
         <v>44022</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="24">
         <v>44023</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="24">
         <v>44024</v>
       </c>
-      <c r="N1" s="5">
+      <c r="N1" s="21">
         <v>44025</v>
       </c>
-      <c r="O1" s="5">
+      <c r="O1" s="21">
         <v>44026</v>
       </c>
-      <c r="P1" s="5">
+      <c r="P1" s="21">
         <v>44027</v>
       </c>
-      <c r="Q1" s="5">
+      <c r="Q1" s="21">
         <v>44028</v>
       </c>
-      <c r="R1" s="5">
+      <c r="R1" s="21">
         <v>44029</v>
       </c>
-      <c r="S1" s="16">
+      <c r="S1" s="8">
         <v>44030</v>
       </c>
-      <c r="T1" s="16">
+      <c r="T1" s="8">
         <v>44031</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="21">
         <v>44032</v>
       </c>
+      <c r="V1" s="21">
+        <v>44033</v>
+      </c>
+      <c r="W1" s="21">
+        <v>44034</v>
+      </c>
+      <c r="X1" s="21">
+        <v>44035</v>
+      </c>
+      <c r="Y1" s="21">
+        <v>44036</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>44037</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>44038</v>
+      </c>
+      <c r="AB1" s="21">
+        <v>44039</v>
+      </c>
+      <c r="AC1" s="21">
+        <v>44040</v>
+      </c>
+      <c r="AD1" s="21">
+        <v>44041</v>
+      </c>
+      <c r="AE1" s="21">
+        <v>44042</v>
+      </c>
+      <c r="AF1" s="21">
+        <v>44043</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:33">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="13">
+        <v>0.167361111111111</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>0.104861111111111</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="AD3" s="13">
+        <v>0.292361111111111</v>
+      </c>
+      <c r="AE3" s="13">
+        <v>0.167361111111111</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>0.167361111111111</v>
+      </c>
+      <c r="AG3" s="27"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B4" s="23">
         <v>0.420138888888889</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="23">
         <v>0.378472222222222</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D4" s="23">
         <v>0.420138888888889</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E4" s="23">
         <v>0.336805555555556</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F4" s="23">
         <v>0.420138888888889</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G4" s="23">
         <v>0.461805555555556</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H4" s="23">
         <v>0.461805555555556</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I4" s="23">
         <v>0.440972222222222</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J4" s="23">
         <v>0.440972222222222</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K4" s="23">
         <v>0.440972222222222</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L4" s="23">
         <v>0.461805555555556</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M4" s="23">
         <v>0.461805555555556</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N4" s="23">
         <v>0.461805555555556</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O4" s="23">
         <v>0.392361111111111</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P4" s="23">
         <v>0.378472222222222</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="9" t="s">
+      <c r="Q4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.503472222222222</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.503472222222222</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.503472222222222</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="V4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="W4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="X4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="Y4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="Z4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="AA4" s="23">
+        <v>0.565972222222222</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="AD4" s="23">
+        <v>0.542361111111111</v>
+      </c>
+      <c r="AE4" s="23">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="AF4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="AG4" s="27"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B5" s="14">
         <v>62.35</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C5" s="14">
         <v>62.05</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="14">
         <v>61.85</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E5" s="14">
         <v>61.95</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F5" s="14">
         <v>62.25</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G5" s="14">
         <v>62.05</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H5" s="14">
         <v>62.65</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I5" s="14">
         <v>62.51</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J5" s="14">
         <v>63.3</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K5" s="14">
         <v>62.55</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L5" s="14">
         <v>62.75</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M5" s="14">
         <v>62.4</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N5" s="14">
         <v>62</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O5" s="14">
         <v>62.3</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P5" s="14">
         <v>61.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="9" t="s">
+      <c r="Q5" s="14">
+        <v>62.01</v>
+      </c>
+      <c r="R5" s="14">
+        <v>61.4</v>
+      </c>
+      <c r="S5" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="T5" s="14">
+        <v>61.8</v>
+      </c>
+      <c r="U5" s="14">
+        <v>61.25</v>
+      </c>
+      <c r="V5" s="14">
+        <v>61.8</v>
+      </c>
+      <c r="W5" s="14">
+        <v>61.95</v>
+      </c>
+      <c r="X5" s="14">
+        <v>61.25</v>
+      </c>
+      <c r="Y5" s="14">
+        <v>61.65</v>
+      </c>
+      <c r="Z5" s="14">
+        <v>61.4</v>
+      </c>
+      <c r="AA5" s="14">
+        <v>62.01</v>
+      </c>
+      <c r="AB5" s="14">
+        <v>62.05</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>62.45</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>61.15</v>
+      </c>
+      <c r="AE5" s="14">
+        <v>61.3</v>
+      </c>
+      <c r="AF5" s="14">
+        <v>61.45</v>
+      </c>
+      <c r="AG5" s="27"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="27"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="M7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="14">
+        <v>700</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="14">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>700</v>
+      </c>
+      <c r="R7" s="14">
+        <v>700</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" s="19"/>
+      <c r="U7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="V7" s="19"/>
+      <c r="W7" s="14">
+        <v>600</v>
+      </c>
+      <c r="X7" s="14">
+        <v>600</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>600</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AC7" s="14">
+        <v>400</v>
+      </c>
+      <c r="AD7" s="14">
+        <v>1100</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>600</v>
+      </c>
+      <c r="AG7" s="27"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="AG8" s="27"/>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="AG9" s="27"/>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="14"/>
+      <c r="AG10" s="27"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="11">
+      <c r="AG11" s="27"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="14">
         <v>2</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11">
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="14">
         <v>2</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="14">
         <v>2</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="14">
         <v>3.5</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="14">
         <v>3</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="14">
         <v>1</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
+      <c r="P12" s="14">
+        <v>1</v>
+      </c>
+      <c r="S12" s="14">
+        <v>1</v>
+      </c>
+      <c r="T12" s="14">
+        <v>1</v>
+      </c>
+      <c r="U12" s="14">
+        <v>1</v>
+      </c>
+      <c r="V12" s="14">
+        <v>1</v>
+      </c>
+      <c r="W12" s="14">
+        <v>1</v>
+      </c>
+      <c r="X12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="27"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="11">
+      <c r="C13" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11">
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="14">
         <v>1</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="14">
         <v>2</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="14">
         <v>2.5</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="14">
         <v>2</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="14">
         <v>2</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="U13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="V13" s="14">
+        <v>1</v>
+      </c>
+      <c r="X13" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="27"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="9"/>
+      <c r="AG14" s="27"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG15" s="27"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="A16" s="10"/>
+      <c r="AG16" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
-        <v>69</v>
+      <c r="A17" s="15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13" t="s">
-        <v>70</v>
+      <c r="A18" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
-        <v>71</v>
+      <c r="A19" s="15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="9" t="s">
+    <row r="23" spans="1:32">
+      <c r="A23" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="14">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="9" t="s">
+      <c r="Y23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="14">
+        <v>4</v>
+      </c>
+      <c r="AB23" s="14">
+        <v>5</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
+      <c r="A24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="14">
         <v>2</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="14">
         <v>2</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="14">
         <v>1</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="14">
         <v>1</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="14">
         <v>5</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N24" s="14">
         <v>5</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="14">
         <v>3</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="14">
         <v>4</v>
       </c>
+      <c r="Q24" s="14">
+        <v>5</v>
+      </c>
+      <c r="S24" s="14">
+        <v>2</v>
+      </c>
+      <c r="U24" s="14">
+        <v>3</v>
+      </c>
+      <c r="V24" s="14">
+        <v>3</v>
+      </c>
+      <c r="W24" s="14">
+        <v>3</v>
+      </c>
+      <c r="X24" s="14">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
-        <v>57</v>
+      <c r="A26" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="11">
+    <row r="35" spans="1:32">
+      <c r="A35" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="14">
         <v>9</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="14">
         <v>8</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="14">
         <v>5</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="14">
         <v>7</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="14">
         <v>6</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="14">
         <v>7</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="14">
         <v>6</v>
       </c>
-      <c r="K35" s="11">
+      <c r="K35" s="14">
         <v>5</v>
       </c>
-      <c r="N35" s="11">
+      <c r="N35" s="14">
         <v>6</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="14">
         <v>7</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="14">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="14">
+        <v>5</v>
+      </c>
+      <c r="S35" s="14">
+        <v>2</v>
+      </c>
+      <c r="T35" s="14">
+        <v>1</v>
+      </c>
+      <c r="U35" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="V35" s="14">
+        <v>7</v>
+      </c>
+      <c r="W35" s="14">
+        <v>4</v>
+      </c>
+      <c r="X35" s="14">
+        <v>5</v>
+      </c>
+      <c r="Y35" s="14">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="14">
+        <v>5</v>
+      </c>
+      <c r="AB35" s="14">
         <v>6</v>
       </c>
+      <c r="AC35" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD35" s="14">
+        <v>3</v>
+      </c>
+      <c r="AE35" s="14">
+        <v>3</v>
+      </c>
+      <c r="AF35" s="14">
+        <v>4</v>
+      </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="14"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="14"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="14"/>
-    </row>
-    <row r="39" ht="13.5" spans="1:1">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" spans="1:1">
-      <c r="A40" t="s">
-        <v>74</v>
+      <c r="A36" s="25"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="25"/>
+      <c r="X37" s="26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" ht="59" customHeight="1" spans="1:28">
+      <c r="A38" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="U38">
+        <v>2001</v>
+      </c>
+      <c r="V38">
+        <v>2002</v>
+      </c>
+      <c r="W38">
+        <v>2003</v>
+      </c>
+      <c r="X38">
+        <v>2004</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28">
+      <c r="A39" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="U39">
+        <v>2.11</v>
+      </c>
+      <c r="V39" t="s">
+        <v>79</v>
+      </c>
+      <c r="W39" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="X40" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="14"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="14"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="14" t="s">
-        <v>75</v>
+      <c r="A41" s="25"/>
+    </row>
+    <row r="42" ht="26" customHeight="1" spans="1:1">
+      <c r="A42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" ht="36" customHeight="1" spans="1:1">
+      <c r="A43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
-        <v>76</v>
-      </c>
+      <c r="A44" s="25"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
-        <v>54</v>
+      <c r="A45" s="25"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="6" t="s">
-        <v>78</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3684,159 +4369,849 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC26" sqref="AC26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="10" width="9.375"/>
-    <col min="11" max="16" width="10.375"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="10" width="9.375"/>
+    <col min="11" max="31" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="5">
-        <v>43983</v>
-      </c>
-      <c r="C1" s="5">
-        <v>43984</v>
-      </c>
-      <c r="D1" s="5">
-        <v>43985</v>
-      </c>
-      <c r="E1" s="5">
-        <v>43986</v>
-      </c>
-      <c r="F1" s="5">
-        <v>43987</v>
-      </c>
-      <c r="G1" s="5">
-        <v>43988</v>
-      </c>
-      <c r="H1" s="5">
-        <v>43989</v>
-      </c>
-      <c r="I1" s="5">
-        <v>43990</v>
-      </c>
-      <c r="J1" s="5">
-        <v>43991</v>
-      </c>
-      <c r="K1" s="5">
-        <v>43992</v>
-      </c>
-      <c r="L1" s="5">
-        <v>43993</v>
-      </c>
-      <c r="M1" s="5">
-        <v>43994</v>
-      </c>
-      <c r="N1" s="5">
-        <v>43995</v>
-      </c>
-      <c r="O1" s="5">
-        <v>43996</v>
-      </c>
-      <c r="P1" s="5">
-        <v>43997</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="1" ht="22.5" spans="1:31">
+      <c r="A1" s="6"/>
+      <c r="B1" s="8">
+        <v>44044</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44045</v>
+      </c>
+      <c r="D1" s="21">
+        <v>44046</v>
+      </c>
+      <c r="E1" s="21">
+        <v>44047</v>
+      </c>
+      <c r="F1" s="21">
+        <v>44048</v>
+      </c>
+      <c r="G1" s="21">
+        <v>44049</v>
+      </c>
+      <c r="H1" s="21">
+        <v>44050</v>
+      </c>
+      <c r="I1" s="8">
+        <v>44051</v>
+      </c>
+      <c r="J1" s="8">
+        <v>44052</v>
+      </c>
+      <c r="K1" s="21">
+        <v>44053</v>
+      </c>
+      <c r="L1" s="21">
+        <v>44054</v>
+      </c>
+      <c r="M1" s="21">
+        <v>44055</v>
+      </c>
+      <c r="N1" s="21">
+        <v>44056</v>
+      </c>
+      <c r="O1" s="21">
+        <v>44057</v>
+      </c>
+      <c r="P1" s="8">
+        <v>44058</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>44059</v>
+      </c>
+      <c r="R1" s="21">
+        <v>44060</v>
+      </c>
+      <c r="S1" s="21">
+        <v>44061</v>
+      </c>
+      <c r="T1" s="21">
+        <v>44062</v>
+      </c>
+      <c r="U1" s="21">
+        <v>44063</v>
+      </c>
+      <c r="V1" s="21">
+        <v>44064</v>
+      </c>
+      <c r="W1" s="8">
+        <v>44065</v>
+      </c>
+      <c r="X1" s="8">
+        <v>44066</v>
+      </c>
+      <c r="Y1" s="21">
+        <v>44067</v>
+      </c>
+      <c r="Z1" s="21">
+        <v>44068</v>
+      </c>
+      <c r="AA1" s="21">
+        <v>44069</v>
+      </c>
+      <c r="AB1" s="21">
+        <v>44070</v>
+      </c>
+      <c r="AC1" s="21">
+        <v>44071</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>44072</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="1:23">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="13">
+        <v>0.167361111111111</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="F3" s="22">
+        <v>0.0840277777777778</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0.0631944444444444</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="L3" s="22">
+        <v>0.0840277777777778</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.271527777777778</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.146527777777778</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0.271527777777778</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0.188194444444444</v>
+      </c>
+      <c r="V3" s="13">
+        <v>0.188194444444444</v>
+      </c>
+      <c r="W3" s="13">
+        <v>0.125694444444444</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" spans="1:23">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="C4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="D4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="E4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="I4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="J4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="K4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0.440972222222222</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.545138888888889</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="V4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+      <c r="W4" s="23">
+        <v>0.461805555555556</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" spans="1:30">
+      <c r="A5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="14">
+        <v>61.65</v>
+      </c>
+      <c r="C5" s="14">
+        <v>61.61</v>
+      </c>
+      <c r="D5" s="14">
+        <v>61.35</v>
+      </c>
+      <c r="E5" s="14">
+        <v>61.51</v>
+      </c>
+      <c r="F5" s="14">
+        <v>61.1</v>
+      </c>
+      <c r="G5" s="14">
+        <v>61.15</v>
+      </c>
+      <c r="H5" s="14">
+        <v>61.35</v>
+      </c>
+      <c r="I5" s="14">
+        <v>61.01</v>
+      </c>
+      <c r="J5" s="14">
+        <v>61.55</v>
+      </c>
+      <c r="K5" s="14">
+        <v>62.01</v>
+      </c>
+      <c r="L5" s="14">
+        <v>61.71</v>
+      </c>
+      <c r="N5" s="14">
+        <v>61.55</v>
+      </c>
+      <c r="O5" s="14">
+        <v>61.65</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>60.8</v>
+      </c>
+      <c r="R5" s="14">
+        <v>60.9</v>
+      </c>
+      <c r="S5" s="14">
+        <v>60.75</v>
+      </c>
+      <c r="T5" s="14">
+        <v>60.75</v>
+      </c>
+      <c r="U5" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="V5" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="W5" s="14">
+        <v>61.6</v>
+      </c>
+      <c r="AD5" s="14">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" spans="1:29">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="13"/>
+    </row>
+    <row r="7" ht="22.5" spans="1:30">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14">
+        <v>1200</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14">
+        <v>600</v>
+      </c>
+      <c r="G7" s="14">
+        <v>900</v>
+      </c>
+      <c r="H7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="14">
+        <v>600</v>
+      </c>
+      <c r="N7" s="14">
+        <v>600</v>
+      </c>
+      <c r="O7" s="14">
+        <v>600</v>
+      </c>
+      <c r="P7" s="14">
+        <v>800</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="22"/>
+      <c r="S7" s="14">
+        <v>800</v>
+      </c>
+      <c r="T7" s="13"/>
+      <c r="U7" s="14">
+        <v>600</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="14"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="22.5" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" ht="22.5" spans="1:1">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="22.5" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" ht="22.5" spans="1:15">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1</v>
+      </c>
+      <c r="N12" s="14">
+        <v>1</v>
+      </c>
+      <c r="O12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="22.5" spans="1:27">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="14">
+        <v>2005</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="14" ht="22.5" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" spans="1:1">
+      <c r="A16" s="10"/>
+    </row>
+    <row r="17" ht="22.5" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" spans="1:1">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="22.5" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" ht="22.5" spans="1:1">
+      <c r="A22" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" spans="1:30">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="14">
+        <v>5</v>
+      </c>
+      <c r="D23" s="14">
+        <v>3</v>
+      </c>
+      <c r="E23" s="14">
+        <v>1</v>
+      </c>
+      <c r="T23" s="14">
+        <v>4</v>
+      </c>
+      <c r="U23" s="14">
+        <v>3</v>
+      </c>
+      <c r="V23" s="14">
+        <v>2</v>
+      </c>
+      <c r="W23" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
+      <c r="AA23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AC23" s="14">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="22.5" spans="1:27">
+      <c r="A24" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA24" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" ht="22.5" spans="1:30">
+      <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="14">
+        <v>6</v>
+      </c>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>4</v>
+      </c>
+      <c r="L25" s="14">
+        <v>3</v>
+      </c>
+      <c r="M25" s="14">
+        <v>6</v>
+      </c>
+      <c r="N25" s="14">
+        <v>4</v>
+      </c>
+      <c r="O25" s="14">
+        <v>5</v>
+      </c>
+      <c r="P25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="14">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" ht="22.5" spans="1:29">
+      <c r="A26" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="L26" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="22.5" spans="1:22">
+      <c r="A27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" s="14">
+        <v>2</v>
+      </c>
+      <c r="V27" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="22.5" spans="1:1">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="22.5" spans="1:1">
+      <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" ht="22.5" spans="1:1">
+      <c r="A30" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" ht="22.5" spans="1:1">
+      <c r="A31" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" spans="1:1">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" spans="1:1">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" spans="1:1">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" spans="1:1">
+      <c r="A35" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" spans="1:1">
+      <c r="A36" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" spans="1:1">
+      <c r="A37" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" spans="1:30">
+      <c r="A38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="14">
+        <v>5</v>
+      </c>
+      <c r="D38" s="14">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>24</v>
+      <c r="F38" s="14">
+        <v>3</v>
+      </c>
+      <c r="G38" s="14">
+        <v>6</v>
+      </c>
+      <c r="H38" s="14">
+        <v>5</v>
+      </c>
+      <c r="J38" s="14">
+        <v>1</v>
+      </c>
+      <c r="K38" s="14">
+        <v>4</v>
+      </c>
+      <c r="L38" s="14">
+        <v>4</v>
+      </c>
+      <c r="M38" s="14">
+        <v>7</v>
+      </c>
+      <c r="N38" s="14">
+        <v>5</v>
+      </c>
+      <c r="O38" s="14">
+        <v>6</v>
+      </c>
+      <c r="P38" s="14">
+        <v>2</v>
+      </c>
+      <c r="S38" s="14">
+        <v>2</v>
+      </c>
+      <c r="T38" s="14">
+        <v>4</v>
+      </c>
+      <c r="U38" s="14">
+        <v>3</v>
+      </c>
+      <c r="V38" s="14">
+        <v>3</v>
+      </c>
+      <c r="W38" s="14">
+        <v>3</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="14">
+        <v>4</v>
+      </c>
+      <c r="AC38" s="14">
+        <v>5</v>
+      </c>
+      <c r="AD38" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:2">
+      <c r="A43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:2">
+      <c r="A44" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customHeight="1" spans="1:2">
+      <c r="A45" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:2">
+      <c r="A47" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" ht="19" customHeight="1" spans="1:2">
+      <c r="A48" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:1">
+      <c r="A49" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="21" customHeight="1" spans="1:2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="1" spans="1:1">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:1">
+      <c r="A52" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3848,116 +5223,1482 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B34"/>
+  <dimension ref="A1:AF52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="S23" workbookViewId="0">
+      <selection activeCell="AB38" sqref="AB38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="10" width="9.375"/>
+    <col min="11" max="32" width="10.375"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="1" ht="22.5" spans="1:32">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7">
+        <v>44075</v>
+      </c>
+      <c r="C1" s="7">
+        <v>44076</v>
+      </c>
+      <c r="D1" s="7">
+        <v>44077</v>
+      </c>
+      <c r="E1" s="7">
+        <v>44078</v>
+      </c>
+      <c r="F1" s="8">
+        <v>44079</v>
+      </c>
+      <c r="G1" s="8">
+        <v>44080</v>
+      </c>
+      <c r="H1" s="7">
+        <v>44081</v>
+      </c>
+      <c r="I1" s="7">
+        <v>44082</v>
+      </c>
+      <c r="J1" s="7">
+        <v>44083</v>
+      </c>
+      <c r="K1" s="7">
+        <v>44084</v>
+      </c>
+      <c r="L1" s="7">
+        <v>44085</v>
+      </c>
+      <c r="M1" s="8">
+        <v>44086</v>
+      </c>
+      <c r="N1" s="8">
+        <v>44087</v>
+      </c>
+      <c r="O1" s="7">
+        <v>44088</v>
+      </c>
+      <c r="P1" s="7">
+        <v>44089</v>
+      </c>
+      <c r="Q1" s="7">
+        <v>44090</v>
+      </c>
+      <c r="R1" s="7">
+        <v>44091</v>
+      </c>
+      <c r="S1" s="7">
+        <v>44092</v>
+      </c>
+      <c r="T1" s="8">
+        <v>44093</v>
+      </c>
+      <c r="U1" s="8">
+        <v>44094</v>
+      </c>
+      <c r="V1" s="7">
+        <v>44095</v>
+      </c>
+      <c r="W1" s="7">
+        <v>44096</v>
+      </c>
+      <c r="X1" s="7">
+        <v>44097</v>
+      </c>
+      <c r="Y1" s="7">
+        <v>44098</v>
+      </c>
+      <c r="Z1" s="7">
+        <v>44099</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>44100</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>44101</v>
+      </c>
+      <c r="AC1" s="7">
+        <v>44102</v>
+      </c>
+      <c r="AD1" s="7">
+        <v>44103</v>
+      </c>
+      <c r="AE1" s="7">
+        <v>44104</v>
+      </c>
+      <c r="AF1" s="7"/>
+    </row>
+    <row r="2" ht="22.5" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="1:31">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+    </row>
+    <row r="4" ht="22.5" spans="1:31">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+    </row>
+    <row r="5" ht="22.5" spans="1:31">
+      <c r="A5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+    </row>
+    <row r="6" ht="22.5" spans="1:31">
+      <c r="A6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="11"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="11"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+    </row>
+    <row r="7" ht="22.5" spans="1:31">
+      <c r="A7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14">
+        <v>61.2</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+    </row>
+    <row r="8" ht="22.5" spans="1:31">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+    </row>
+    <row r="9" ht="22.5" spans="1:31">
+      <c r="A9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+    </row>
+    <row r="10" ht="22.5" spans="1:31">
+      <c r="A10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+    </row>
+    <row r="11" ht="22.5" spans="1:31">
+      <c r="A11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+    </row>
+    <row r="12" ht="22.5" spans="1:31">
+      <c r="A12" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+    </row>
+    <row r="13" ht="22.5" spans="1:31">
+      <c r="A13" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="14">
+        <v>3</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="14">
+        <v>1</v>
+      </c>
+      <c r="M13" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="N13" s="12"/>
+      <c r="O13" s="14">
+        <v>1</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+    </row>
+    <row r="14" ht="22.5" spans="1:1">
+      <c r="A14" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" ht="22.5" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" ht="22.5" spans="1:4">
+      <c r="A16" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="22.5" spans="1:1">
+      <c r="A17" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" ht="22.5" spans="1:1">
+      <c r="A18" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" ht="22.5" spans="1:1">
+      <c r="A19" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" ht="22.5" spans="1:31">
+      <c r="A20" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+    </row>
+    <row r="21" ht="22.5" spans="1:31">
+      <c r="A21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+    </row>
+    <row r="22" ht="22.5" spans="1:31">
+      <c r="A22" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+    </row>
+    <row r="23" ht="22.5" spans="1:31">
+      <c r="A23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L23" s="14">
+        <v>2</v>
+      </c>
+      <c r="M23" s="14">
+        <v>1</v>
+      </c>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="12"/>
+      <c r="AE23" s="12"/>
+    </row>
+    <row r="24" ht="22.5" spans="1:31">
+      <c r="A24" s="10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+    </row>
+    <row r="25" ht="22.5" spans="1:31">
+      <c r="A25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="14">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="14">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="14">
+        <v>3</v>
+      </c>
+      <c r="I25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="J25" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="14">
+        <v>2</v>
+      </c>
+      <c r="M25" s="14">
+        <v>2</v>
+      </c>
+      <c r="N25" s="12"/>
+      <c r="O25" s="14">
+        <v>4</v>
+      </c>
+      <c r="P25" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+    </row>
+    <row r="26" ht="22.5" spans="1:31">
+      <c r="A26" s="10" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>98</v>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+    </row>
+    <row r="27" ht="22.5" spans="1:31">
+      <c r="A27" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+    </row>
+    <row r="28" ht="22.5" spans="1:31">
+      <c r="A28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+    </row>
+    <row r="29" ht="22.5" spans="1:31">
+      <c r="A29" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+    </row>
+    <row r="30" ht="22.5" spans="1:31">
+      <c r="A30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+    </row>
+    <row r="31" ht="22.5" spans="1:31">
+      <c r="A31" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+    </row>
+    <row r="32" ht="22.5" spans="1:31">
+      <c r="A32" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+    </row>
+    <row r="33" ht="22.5" spans="1:31">
+      <c r="A33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="12"/>
+      <c r="AC33" s="12"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="12"/>
+    </row>
+    <row r="34" ht="22.5" spans="1:31">
+      <c r="A34" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="12"/>
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="12"/>
+      <c r="AC34" s="12"/>
+      <c r="AD34" s="12"/>
+      <c r="AE34" s="12"/>
+    </row>
+    <row r="35" ht="22.5" spans="1:31">
+      <c r="A35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="12"/>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="12"/>
+      <c r="AC35" s="12"/>
+      <c r="AD35" s="12"/>
+      <c r="AE35" s="12"/>
+    </row>
+    <row r="36" ht="22.5" spans="1:31">
+      <c r="A36" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="12"/>
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="12"/>
+      <c r="AC36" s="12"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="12"/>
+    </row>
+    <row r="37" ht="22.5" spans="1:31">
+      <c r="A37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="12"/>
+      <c r="AC37" s="12"/>
+      <c r="AD37" s="12"/>
+      <c r="AE37" s="12"/>
+    </row>
+    <row r="38" ht="22.5" spans="1:31">
+      <c r="A38" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="14">
+        <v>5</v>
+      </c>
+      <c r="C38" s="14">
+        <v>2</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="14">
+        <v>5</v>
+      </c>
+      <c r="G38" s="12"/>
+      <c r="H38" s="14">
+        <v>3</v>
+      </c>
+      <c r="I38" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="J38" s="14">
+        <v>2</v>
+      </c>
+      <c r="K38" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="L38" s="14">
+        <v>5</v>
+      </c>
+      <c r="M38" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="N38" s="12"/>
+      <c r="O38" s="14">
+        <v>5</v>
+      </c>
+      <c r="P38" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="12">
+        <v>7</v>
+      </c>
+      <c r="S38" s="12">
+        <v>6</v>
+      </c>
+      <c r="T38" s="12">
+        <v>5</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12">
+        <v>7</v>
+      </c>
+      <c r="X38" s="12">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="12">
+        <v>7</v>
+      </c>
+      <c r="Z38" s="12"/>
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="12">
+        <v>7</v>
+      </c>
+      <c r="AC38" s="12"/>
+      <c r="AD38" s="12"/>
+      <c r="AE38" s="12"/>
+    </row>
+    <row r="39" spans="2:31">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="12"/>
+      <c r="AC39" s="12"/>
+      <c r="AD39" s="12"/>
+      <c r="AE39" s="12"/>
+    </row>
+    <row r="40" spans="2:31">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+    </row>
+    <row r="41" spans="2:31">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12"/>
+    </row>
+    <row r="42" spans="2:31">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="12"/>
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:2">
+      <c r="A43" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:2">
+      <c r="A44" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" ht="25" customHeight="1" spans="1:2">
+      <c r="A45" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:2">
+      <c r="A46" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:2">
+      <c r="A47" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" ht="19" customHeight="1" spans="1:2">
+      <c r="A48" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="B48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:1">
+      <c r="A49" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" ht="21" customHeight="1" spans="1:2">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" ht="22" customHeight="1" spans="1:1">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" ht="14.25" spans="1:1">
+      <c r="A52" s="20" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3969,13 +6710,167 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A2:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" spans="2:2">
+      <c r="B4" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="47.375" customWidth="1"/>
   </cols>
@@ -4012,71 +6907,71 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>102</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>104</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -4086,45 +6981,45 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>122</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -4134,17 +7029,17 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>123</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="2:2">
@@ -4159,27 +7054,27 @@
     </row>
     <row r="43" spans="2:2">
       <c r="B43" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>130</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -4189,7 +7084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:K40"/>
@@ -4198,7 +7093,7 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="20.25"/>
   <cols>
     <col min="2" max="2" width="54.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="2" customWidth="1"/>
@@ -4219,7 +7114,7 @@
     </row>
     <row r="2" ht="13.5" spans="2:2">
       <c r="B2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="13.5" spans="2:2">
@@ -4227,7 +7122,7 @@
     </row>
     <row r="4" ht="13.5" spans="2:2">
       <c r="B4" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" ht="13.5" spans="2:2">
@@ -4237,17 +7132,17 @@
     </row>
     <row r="6" ht="13.5" spans="2:2">
       <c r="B6" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" ht="13.5" spans="2:2">
       <c r="B7" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" ht="13.5" spans="2:2">
       <c r="B8" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" ht="13.5" spans="2:2">
@@ -4255,7 +7150,7 @@
     </row>
     <row r="10" ht="13.5" spans="2:2">
       <c r="B10" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" ht="13.5" spans="2:2">
@@ -4268,52 +7163,52 @@
     </row>
     <row r="13" ht="13.5" spans="2:2">
       <c r="B13" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" ht="13.5" spans="2:2">
       <c r="B14" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" ht="13.5" spans="2:2">
       <c r="B15" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" ht="13.5" spans="2:2">
       <c r="B16" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="2" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="2" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="2:2">
@@ -4323,22 +7218,22 @@
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="2:2">
@@ -4348,38 +7243,38 @@
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="2" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="2" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="2" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="2" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" ht="18" spans="2:3">
       <c r="B39" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" ht="18" spans="2:3">
       <c r="B40" s="1" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4389,7 +7284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:B5"/>
@@ -4398,19 +7293,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.81666666666667" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="2:2">
@@ -4420,89 +7315,12 @@
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="2:2">
       <c r="B5" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="20" ht="18" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
